--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\Luz del Sur\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
     <sheet name="JUL 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="45">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -151,6 +147,15 @@
   </si>
   <si>
     <t>FECHA DE VENCIMIENTO: 05-AGO-2015</t>
+  </si>
+  <si>
+    <t>(18/08/15)</t>
+  </si>
+  <si>
+    <t>Nota Débito Res. Nº 130-137-2015-OS/CD</t>
+  </si>
+  <si>
+    <t>MEDIDOR 3 - M3 (Sr. Abel Ludeña)</t>
   </si>
 </sst>
 </file>
@@ -652,6 +657,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,15 +673,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,7 +741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,7 +776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1019,11 +1024,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1144,7 +1149,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="76"/>
@@ -1263,7 +1268,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="70" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="76"/>
@@ -1369,7 +1374,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="76"/>
@@ -1422,11 +1427,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1537,11 +1542,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1670,12 +1675,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="73" t="str">
+      <c r="B37" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1791,12 +1796,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="str">
+      <c r="B42" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -1903,7 +1908,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="76"/>
@@ -1966,12 +1971,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="73" t="str">
+      <c r="B52" s="70" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2082,11 +2087,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2215,12 +2220,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="73" t="str">
+      <c r="B65" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2336,12 +2341,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="73" t="str">
+      <c r="B70" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2449,7 +2454,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="76"/>
@@ -2512,12 +2517,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73" t="str">
+      <c r="B80" s="70" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="72"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2622,11 +2627,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2750,12 +2755,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="73" t="str">
+      <c r="B93" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="75"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="72"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -2863,12 +2868,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="73" t="str">
+      <c r="B98" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="75"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="72"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -2966,7 +2971,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="76"/>
@@ -3019,12 +3024,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="73" t="str">
+      <c r="B108" s="70" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="75"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="72"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3057,6 +3062,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3072,11 +3082,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3087,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,11 +3153,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3273,11 +3278,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3392,11 +3397,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3498,11 +3503,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,11 +3556,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3667,11 +3672,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3800,12 +3805,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="73" t="str">
+      <c r="B37" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -3921,12 +3926,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="str">
+      <c r="B42" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4034,7 +4039,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="76"/>
@@ -4099,12 +4104,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="73" t="str">
+      <c r="B52" s="70" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4216,11 +4221,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4349,12 +4354,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="73" t="str">
+      <c r="B65" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4470,12 +4475,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="73" t="str">
+      <c r="B70" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4583,7 +4588,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="76"/>
@@ -4648,12 +4653,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73" t="str">
+      <c r="B80" s="70" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="72"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4759,11 +4764,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -4887,12 +4892,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="73" t="str">
+      <c r="B93" s="70" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="75"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="72"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5000,12 +5005,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="73" t="str">
+      <c r="B98" s="70" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="75"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="72"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5103,7 +5108,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="76"/>
@@ -5158,12 +5163,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="73" t="str">
+      <c r="B108" s="70" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="75"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="72"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5196,6 +5201,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5208,14 +5221,2238 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53">
+        <v>29923.4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="64">
+        <v>29370.2</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f>(H6/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="55">
+        <f>(C5-C6)</f>
+        <v>553.20000000000073</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H7" s="20">
+        <f>(C7*G7)</f>
+        <v>243.85056000000034</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21">
+        <f>(C13*G7)</f>
+        <v>48.31168000000001</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
+        <v>15.75</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <f>(H8/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f>H9/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>47.359900800000062</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" ref="I10:J10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5628024000000007</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="53">
+        <v>208.4</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4.26</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
+        <f>(H11/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="64">
+        <v>98.8</v>
+      </c>
+      <c r="D12" s="62" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="55">
+        <f>(C11-C12)</f>
+        <v>109.60000000000001</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>314.79046080000035</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" ref="I13:J13" si="1">SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>63.769482400000008</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <f>H15/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="53">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="30">
+        <f>(H16/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="64">
+        <v>160.4</v>
+      </c>
+      <c r="D17" s="62" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="55">
+        <f>(C16-C17)</f>
+        <v>114.99999999999997</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35">
+        <f>(H13+H15-H16)</f>
+        <v>314.80046080000034</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" ref="I18:J18" si="2">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="2"/>
+        <v>63.771982400000013</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="53">
+        <v>149</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="64">
+        <v>65.3</v>
+      </c>
+      <c r="D22" s="62" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="55">
+        <f>(C21-C22)</f>
+        <v>83.7</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="39">
+        <f>(C7-SUM(C13,C18,C23))</f>
+        <v>244.90000000000077</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42">
+        <f>J18</f>
+        <v>63.771982400000013</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="33"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="33"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <f>B2</f>
+        <v>Consumo Energía JULIO 2015</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <f>C5</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14">
+        <f>(H34/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="61">
+        <f>C6</f>
+        <v>29370.2</v>
+      </c>
+      <c r="D35" s="62" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14">
+        <f>(H35/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18">
+        <f>C7</f>
+        <v>553.20000000000073</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H36" s="20">
+        <f>(C36*G36)</f>
+        <v>243.85056000000034</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21">
+        <f>(C47*G36)</f>
+        <v>50.691999999999993</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13">
+        <f>H8</f>
+        <v>15.75</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14">
+        <f>(H37/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="str">
+        <f>F9</f>
+        <v>Nota Débito Res. Nº 130-137-2015-OS/CD</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
+        <f>H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14">
+        <f>J9</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="70" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f>((SUM(H34:H37)-H38)*0.18)</f>
+        <v>47.359900800000062</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" ref="I39:J39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <f>((SUM(J34:J37)-J38)*0.18)</f>
+        <v>9.9912599999999987</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="28"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="51">
+        <f>C11</f>
+        <v>208.4</v>
+      </c>
+      <c r="D40" s="27" t="str">
+        <f>D34</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H40" s="13">
+        <f>H11</f>
+        <v>4.26</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14">
+        <f>(H40/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="64">
+        <f>C12</f>
+        <v>98.8</v>
+      </c>
+      <c r="D41" s="62" t="str">
+        <f>D35</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="28"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="55">
+        <f>C13</f>
+        <v>109.60000000000001</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13">
+        <f>SUM(H34:H38)+SUM(H39:H40)</f>
+        <v>314.79046080000035</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" ref="I42:J42" si="4">SUM(I34:I38)+SUM(I39:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="4"/>
+        <v>66.578259999999986</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="57"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="28"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="70" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13">
+        <f>H15</f>
+        <v>0.05</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13">
+        <f>H44/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="28"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="51">
+        <f>C16</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D45" s="27" t="str">
+        <f>D40</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>H16</f>
+        <v>0.04</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="30">
+        <f>H45/4</f>
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="64">
+        <f>C17</f>
+        <v>160.4</v>
+      </c>
+      <c r="D46" s="62" t="str">
+        <f>D41</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="55">
+        <f>C18</f>
+        <v>114.99999999999997</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35">
+        <f>(H42+H44-H45)</f>
+        <v>314.80046080000034</v>
+      </c>
+      <c r="I47" s="35">
+        <f t="shared" ref="I47:J47" si="5">(I42+I44-I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="5"/>
+        <v>66.580759999999984</v>
+      </c>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+    </row>
+    <row r="48" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="11"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="11"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="51">
+        <f>C21</f>
+        <v>149</v>
+      </c>
+      <c r="D50" s="27" t="str">
+        <f>D34</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="64">
+        <f>C22</f>
+        <v>65.3</v>
+      </c>
+      <c r="D51" s="62" t="str">
+        <f>D35</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="55">
+        <f>C23</f>
+        <v>83.7</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="11"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="70" t="str">
+        <f>B25</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="39">
+        <f>C26</f>
+        <v>244.90000000000077</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42">
+        <f>J47</f>
+        <v>66.580759999999984</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="33"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="58"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="47"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="str">
+        <f>B2</f>
+        <v>Consumo Energía JULIO 2015</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="74"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="9">
+        <f>C34</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D63" s="10" t="str">
+        <f>D34</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14">
+        <f>(H63/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="61">
+        <f>C35</f>
+        <v>29370.2</v>
+      </c>
+      <c r="D64" s="62" t="str">
+        <f>D35</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14">
+        <f>(H64/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="18">
+        <f>C36</f>
+        <v>553.20000000000073</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H65" s="20">
+        <f>(C65*G65)</f>
+        <v>243.85056000000034</v>
+      </c>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21">
+        <f>(C81*G65)</f>
+        <v>36.894960000000005</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13">
+        <f>H8</f>
+        <v>15.75</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14">
+        <f>(H66/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="28"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="str">
+        <f>F9</f>
+        <v>Nota Débito Res. Nº 130-137-2015-OS/CD</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f>H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <f>J9</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="28"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="70" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f>((SUM(H63:H66)-H67)*0.18)</f>
+        <v>47.359900800000062</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" ref="I68:J68" si="6">((SUM(I63:I66)-I67)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <f t="shared" si="6"/>
+        <v>7.5077927999999998</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="28"/>
+    </row>
+    <row r="69" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="51">
+        <f>C11</f>
+        <v>208.4</v>
+      </c>
+      <c r="D69" s="27" t="str">
+        <f>D63</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H69" s="13">
+        <f>H11</f>
+        <v>4.26</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14">
+        <f>(H69/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="K69" s="56"/>
+      <c r="L69" s="57"/>
+    </row>
+    <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="64">
+        <f>C12</f>
+        <v>98.8</v>
+      </c>
+      <c r="D70" s="62" t="str">
+        <f>D64</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="28"/>
+    </row>
+    <row r="71" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="55">
+        <f>C13</f>
+        <v>109.60000000000001</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13">
+        <f>SUM(H63:H67)+SUM(H68:H69)</f>
+        <v>314.79046080000035</v>
+      </c>
+      <c r="I71" s="13">
+        <f t="shared" ref="I71:J71" si="7">SUM(I63:I67)+SUM(I68:I69)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <f t="shared" si="7"/>
+        <v>50.297752800000005</v>
+      </c>
+      <c r="K71" s="31"/>
+      <c r="L71" s="28"/>
+    </row>
+    <row r="72" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+    </row>
+    <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="70" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13">
+        <f>H15</f>
+        <v>0.05</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13">
+        <f>H73/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+    </row>
+    <row r="74" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="51">
+        <f>C16</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D74" s="27" t="str">
+        <f>D69</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13">
+        <f>H16</f>
+        <v>0.04</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="30">
+        <f>H74/4</f>
+        <v>0.01</v>
+      </c>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="64">
+        <f>C17</f>
+        <v>160.4</v>
+      </c>
+      <c r="D75" s="62" t="str">
+        <f>D70</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="45"/>
+    </row>
+    <row r="76" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="55">
+        <f>C18</f>
+        <v>114.99999999999997</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35">
+        <f>(H71+H73-H74)</f>
+        <v>314.80046080000034</v>
+      </c>
+      <c r="I76" s="35">
+        <f t="shared" ref="I76:J76" si="8">(I71+I73-I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="35">
+        <f t="shared" si="8"/>
+        <v>50.30025280000001</v>
+      </c>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+    </row>
+    <row r="77" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="11"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+    </row>
+    <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="11"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+    </row>
+    <row r="79" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="51">
+        <f>C21</f>
+        <v>149</v>
+      </c>
+      <c r="D79" s="27" t="str">
+        <f>D63</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+    </row>
+    <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="64">
+        <f>C22</f>
+        <v>65.3</v>
+      </c>
+      <c r="D80" s="62" t="str">
+        <f>D64</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+    </row>
+    <row r="81" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="55">
+        <f>C23</f>
+        <v>83.7</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+    </row>
+    <row r="82" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="11"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+    </row>
+    <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="70" t="str">
+        <f>B25</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="67"/>
+      <c r="H83" s="68"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+    </row>
+    <row r="84" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="39">
+        <f>C26</f>
+        <v>244.90000000000077</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42">
+        <f>J76</f>
+        <v>50.30025280000001</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="45"/>
+    </row>
+    <row r="85" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="33"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="43"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="45"/>
+    </row>
+    <row r="87" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="45"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="str">
+        <f>B31</f>
+        <v>Consumo Energía JULIO 2015</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+      </c>
+      <c r="K89" s="45"/>
+    </row>
+    <row r="90" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="45"/>
+    </row>
+    <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="74"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="45"/>
+    </row>
+    <row r="92" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="9">
+        <f>C63</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D92" s="10" t="str">
+        <f>D63</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13">
+        <f>H34</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14">
+        <f>(H92/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="61">
+        <f>C64</f>
+        <v>29370.2</v>
+      </c>
+      <c r="D93" s="62" t="str">
+        <f>D64</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13">
+        <f>H35</f>
+        <v>1.07</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14">
+        <f>(H93/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="K93" s="45"/>
+    </row>
+    <row r="94" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="18">
+        <f>C65</f>
+        <v>553.20000000000073</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="12">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H94" s="20">
+        <f>(C94*G94)</f>
+        <v>243.85056000000034</v>
+      </c>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21">
+        <f>(C113*G94)</f>
+        <v>107.95192000000034</v>
+      </c>
+      <c r="K94" s="45"/>
+    </row>
+    <row r="95" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13">
+        <f>H37</f>
+        <v>15.75</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14">
+        <f>(H95/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K95" s="45"/>
+    </row>
+    <row r="96" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="str">
+        <f>F9</f>
+        <v>Nota Débito Res. Nº 130-137-2015-OS/CD</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13">
+        <f>H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="14">
+        <f>J9</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K96" s="45"/>
+    </row>
+    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="70" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
+      </c>
+      <c r="C97" s="71"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13">
+        <f>((SUM(H92:H95)-H96)*0.18)</f>
+        <v>47.359900800000062</v>
+      </c>
+      <c r="I97" s="13">
+        <f t="shared" ref="I97:J97" si="9">((SUM(I92:I95)-I96)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13">
+        <f t="shared" si="9"/>
+        <v>20.298045600000062</v>
+      </c>
+      <c r="K97" s="45"/>
+    </row>
+    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="51">
+        <f>C11</f>
+        <v>208.4</v>
+      </c>
+      <c r="D98" s="27" t="str">
+        <f>D92</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H98" s="13">
+        <f>H40</f>
+        <v>4.26</v>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="14">
+        <f>(H98/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="K98" s="45"/>
+    </row>
+    <row r="99" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="64">
+        <f>C12</f>
+        <v>98.8</v>
+      </c>
+      <c r="D99" s="62" t="str">
+        <f>D93</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="55">
+        <f>C13</f>
+        <v>109.60000000000001</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13">
+        <f>SUM(H92:H96)+SUM(H97:H98)</f>
+        <v>314.79046080000035</v>
+      </c>
+      <c r="I100" s="13">
+        <f t="shared" ref="I100:J100" si="10">SUM(I92:I96)+SUM(I97:I98)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <f t="shared" si="10"/>
+        <v>134.1449656000004</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="70" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
+      </c>
+      <c r="C102" s="71"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13">
+        <f>H44</f>
+        <v>0.05</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13">
+        <f>H102/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="51">
+        <f>C16</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D103" s="27" t="str">
+        <f>D98</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13">
+        <f>H45</f>
+        <v>0.04</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="30">
+        <f>H103/4</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="64">
+        <f>C17</f>
+        <v>160.4</v>
+      </c>
+      <c r="D104" s="62" t="str">
+        <f>D99</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="55">
+        <f>C18</f>
+        <v>114.99999999999997</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="34"/>
+      <c r="H105" s="35">
+        <f>(H100+H102-H103)</f>
+        <v>314.80046080000034</v>
+      </c>
+      <c r="I105" s="35">
+        <f t="shared" ref="I105:J105" si="11">(I100+I102-I103)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="35">
+        <f t="shared" si="11"/>
+        <v>134.1474656000004</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="76"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="51">
+        <f>C21</f>
+        <v>149</v>
+      </c>
+      <c r="D108" s="27" t="str">
+        <f>D92</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="64">
+        <f>C22</f>
+        <v>65.3</v>
+      </c>
+      <c r="D109" s="62" t="str">
+        <f>D93</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="55">
+        <f>C23</f>
+        <v>83.7</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="70" t="str">
+        <f>B54</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C112" s="71"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="67"/>
+      <c r="H112" s="68"/>
+    </row>
+    <row r="113" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="39">
+        <f>C26</f>
+        <v>244.90000000000077</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="41"/>
+      <c r="H113" s="43">
+        <f>J105</f>
+        <v>134.1474656000004</v>
+      </c>
+      <c r="I113" s="35"/>
+      <c r="J113" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="JUL 2015" sheetId="2" r:id="rId2"/>
     <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="47">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -156,6 +161,12 @@
   </si>
   <si>
     <t>MEDIDOR 3 - M3 (Sr. Abel Ludeña)</t>
+  </si>
+  <si>
+    <t>Consumo Energía AGOSTO 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-SET-2015</t>
   </si>
 </sst>
 </file>
@@ -657,6 +668,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,15 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1024,11 +1035,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1149,7 +1160,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="76"/>
@@ -1268,7 +1279,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="76"/>
@@ -1374,7 +1385,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="76"/>
@@ -1427,11 +1438,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1542,11 +1553,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1675,12 +1686,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1796,12 +1807,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -1908,7 +1919,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="76"/>
@@ -1971,12 +1982,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2087,11 +2098,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2220,12 +2231,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2341,12 +2352,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="70" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2454,7 +2465,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="76"/>
@@ -2517,12 +2528,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2627,11 +2638,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="72"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2755,12 +2766,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="70" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -2868,12 +2879,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -2971,7 +2982,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="76"/>
@@ -3024,12 +3035,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="70" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3062,11 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3082,6 +3088,11 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3153,11 +3164,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3278,11 +3289,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3397,11 +3408,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3503,11 +3514,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,11 +3567,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3672,11 +3683,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3805,12 +3816,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -3926,12 +3937,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4039,7 +4050,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="76"/>
@@ -4104,12 +4115,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4221,11 +4232,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4354,12 +4365,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4475,12 +4486,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="70" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4588,7 +4599,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="76"/>
@@ -4653,12 +4664,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4764,11 +4775,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="72"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -4892,12 +4903,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="70" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5005,12 +5016,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5108,7 +5119,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="76"/>
@@ -5163,12 +5174,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="70" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5201,14 +5212,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5221,6 +5224,14 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5230,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5276,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5275,7 +5286,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,11 +5302,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5436,11 +5447,11 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5555,11 +5566,11 @@
       <c r="L14" s="28"/>
     </row>
     <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5661,11 +5672,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,11 +5725,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -5800,7 +5811,7 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>B2</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5811,7 +5822,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="48" t="str">
         <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="45"/>
@@ -5830,11 +5841,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -5985,12 +5996,12 @@
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70" t="str">
+      <c r="B39" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6001,7 +6012,7 @@
         <v>47.359900800000062</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" ref="I39:J39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
+        <f t="shared" ref="I39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J39" s="13">
@@ -6109,12 +6120,12 @@
       <c r="L43" s="28"/>
     </row>
     <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="str">
+      <c r="B44" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6222,7 +6233,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="76"/>
@@ -6287,12 +6298,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70" t="str">
+      <c r="B54" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6374,7 +6385,7 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="str">
         <f>B2</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6385,7 +6396,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="48" t="str">
         <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="16"/>
@@ -6404,11 +6415,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6559,12 +6570,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="70" t="str">
+      <c r="B68" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6683,12 +6694,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="72"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -6796,7 +6807,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="76"/>
@@ -6861,12 +6872,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="70" t="str">
+      <c r="B83" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -6944,7 +6955,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f>B31</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -6955,7 +6966,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="48" t="str">
         <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 05-AGO-2015</v>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
       </c>
       <c r="K89" s="45"/>
     </row>
@@ -6972,11 +6983,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="75"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="72"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7121,12 +7132,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="70" t="str">
+      <c r="B97" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7237,12 +7248,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="70" t="str">
+      <c r="B102" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7340,7 +7351,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="76"/>
@@ -7395,12 +7406,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="70" t="str">
+      <c r="B112" s="73" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="71"/>
-      <c r="D112" s="72"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="75"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7433,6 +7444,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="B73:D73"/>
@@ -7441,18 +7464,6 @@
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -11,6 +11,9 @@
     <sheet name="JUL 2015" sheetId="2" r:id="rId2"/>
     <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="46">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -157,6 +160,9 @@
   <si>
     <t>MEDIDOR 3 - M3 (Sr. Abel Ludeña)</t>
   </si>
+  <si>
+    <t>Consumo Energía AGOSTO 2015</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -468,11 +474,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,6 +672,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,11 +1046,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1149,11 +1171,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -1268,11 +1290,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -1374,11 +1396,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,11 +1449,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1542,11 +1564,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1675,12 +1697,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1796,12 +1818,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -1908,11 +1930,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -1971,12 +1993,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2087,11 +2109,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2220,12 +2242,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2341,12 +2363,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="70" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2454,11 +2476,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="77"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -2517,12 +2539,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2627,11 +2649,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2755,12 +2777,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="70" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -2868,12 +2890,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -2971,11 +2993,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="77"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="80"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,12 +3046,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="70" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3153,11 +3175,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3278,11 +3300,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3397,11 +3419,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3503,11 +3525,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,11 +3578,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3672,11 +3694,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3805,12 +3827,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -3926,12 +3948,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4039,11 +4061,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -4104,12 +4126,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4221,11 +4243,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4354,12 +4376,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="70" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4475,12 +4497,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="70" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4588,11 +4610,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="77"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -4653,12 +4675,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4764,11 +4786,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -4892,12 +4914,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="70" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5005,12 +5027,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5108,11 +5130,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="77"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="80"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -5163,12 +5185,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="70" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5228,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L113"/>
+  <dimension ref="B1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B1" sqref="B1:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,10 +5268,10 @@
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="0.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5263,9 +5285,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5278,7 +5300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5290,12 +5312,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+    <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5310,10 +5332,17 @@
       <c r="J4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
@@ -5336,10 +5365,20 @@
         <f>(H5/4)</f>
         <v>0.61750000000000005</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="M5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="63" t="s">
         <v>8</v>
       </c>
@@ -5362,10 +5401,20 @@
         <f>(H6/4)</f>
         <v>0.26750000000000002</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="14">
+        <f>(H6/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(H6/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(H6/4)</f>
+        <v>0.26750000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>10</v>
       </c>
@@ -5392,10 +5441,20 @@
         <f>(C13*G7)</f>
         <v>48.31168000000001</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="21">
+        <f>(C18*G7)</f>
+        <v>50.691999999999993</v>
+      </c>
+      <c r="L7" s="21">
+        <f>(C23*G7)</f>
+        <v>36.894960000000005</v>
+      </c>
+      <c r="M7" s="21">
+        <f>(C26*G7)</f>
+        <v>107.95192000000034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5412,10 +5471,20 @@
         <f>(H8/4)</f>
         <v>3.9375</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="14">
+        <f>(H8/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="L8" s="14">
+        <f>(H8/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="M8" s="14">
+        <f>(H8/4)</f>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5432,15 +5501,25 @@
         <f>H9/4</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="K9" s="14">
+        <f>H9/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L9" s="14">
+        <f>H9/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M9" s="14">
+        <f>H9/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5451,17 +5530,27 @@
         <v>47.359900800000062</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" ref="I10:J10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <f t="shared" ref="I10:M10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>9.5628024000000007</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9912599999999987</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5077927999999998</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>20.298045600000062</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
@@ -5487,10 +5576,20 @@
         <f>(H11/4)</f>
         <v>1.0649999999999999</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="14">
+        <f>(H11/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="L11" s="14">
+        <f>(H11/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="M11" s="14">
+        <f>(H11/4)</f>
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="63" t="s">
         <v>8</v>
       </c>
@@ -5507,10 +5606,11 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
         <v>10</v>
       </c>
@@ -5531,17 +5631,27 @@
         <v>314.79046080000035</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" ref="I13:J13" si="1">SUM(I5:I9)+SUM(I10:I11)</f>
+        <f t="shared" ref="I13:M13" si="1">SUM(I5:I9)+SUM(I10:I11)</f>
         <v>0</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="1"/>
         <v>63.769482400000008</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>66.578259999999986</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
+        <v>50.297752800000005</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="1"/>
+        <v>134.1449656000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5551,15 +5661,16 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5573,10 +5684,20 @@
         <f>H15/4</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="13">
+        <f>H15/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L15" s="13">
+        <f>H15/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M15" s="13">
+        <f>H15/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="50" t="s">
         <v>6</v>
       </c>
@@ -5600,10 +5721,20 @@
         <f>(H16/4)</f>
         <v>0.01</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="30">
+        <f>(H16/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="30">
+        <f>(H16/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="30">
+        <f>(H16/4)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63" t="s">
         <v>8</v>
       </c>
@@ -5620,10 +5751,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="54" t="s">
         <v>10</v>
       </c>
@@ -5644,31 +5776,41 @@
         <v>314.80046080000034</v>
       </c>
       <c r="I18" s="35">
-        <f t="shared" ref="I18:J18" si="2">(I13+I15-I16)</f>
+        <f t="shared" ref="I18:M18" si="2">(I13+I15-I16)</f>
         <v>0</v>
       </c>
       <c r="J18" s="35">
         <f t="shared" si="2"/>
         <v>63.771982400000013</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="35">
+        <f t="shared" si="2"/>
+        <v>66.580759999999984</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="2"/>
+        <v>50.30025280000001</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="2"/>
+        <v>134.1474656000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+    <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
         <v>6</v>
       </c>
@@ -5681,7 +5823,7 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63" t="s">
         <v>8</v>
       </c>
@@ -5694,7 +5836,7 @@
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
         <v>10</v>
       </c>
@@ -5707,18 +5849,18 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
+    <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -5726,7 +5868,7 @@
       <c r="G25" s="67"/>
       <c r="H25" s="68"/>
     </row>
-    <row r="26" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>21</v>
       </c>
@@ -5750,7 +5892,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="33"/>
       <c r="G27" s="41"/>
       <c r="H27" s="43"/>
@@ -5759,7 +5901,7 @@
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
     </row>
-    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="33"/>
       <c r="G28" s="41"/>
       <c r="H28" s="43"/>
@@ -5768,7 +5910,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -5781,7 +5923,7 @@
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="str">
         <f>B1</f>
         <v>Suministro 1395500</v>
@@ -5793,14 +5935,14 @@
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="45"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>B2</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5816,7 +5958,7 @@
       <c r="K31" s="49"/>
       <c r="L31" s="45"/>
     </row>
-    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5829,12 +5971,12 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
+    <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -5845,14 +5987,15 @@
       <c r="H33" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
@@ -5879,9 +6022,10 @@
         <v>0.61750000000000005</v>
       </c>
       <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="60" t="s">
         <v>8</v>
       </c>
@@ -5907,10 +6051,11 @@
         <f>(H35/4)</f>
         <v>0.26750000000000002</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-    </row>
-    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>10</v>
       </c>
@@ -5938,10 +6083,11 @@
         <f>(C47*G36)</f>
         <v>50.691999999999993</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5959,10 +6105,11 @@
         <f>(H37/4)</f>
         <v>3.9375</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5981,16 +6128,17 @@
         <f>J9</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-    </row>
-    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70" t="str">
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6001,17 +6149,18 @@
         <v>47.359900800000062</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" ref="I39:J39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
+        <f t="shared" ref="I39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J39" s="13">
         <f>((SUM(J34:J37)-J38)*0.18)</f>
         <v>9.9912599999999987</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="28"/>
-    </row>
-    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="50" t="s">
         <v>6</v>
       </c>
@@ -6040,10 +6189,11 @@
         <f>(H40/4)</f>
         <v>1.0649999999999999</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-    </row>
-    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="63" t="s">
         <v>8</v>
       </c>
@@ -6062,9 +6212,10 @@
       <c r="I41" s="13"/>
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
-      <c r="L41" s="28"/>
-    </row>
-    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="54" t="s">
         <v>10</v>
       </c>
@@ -6092,10 +6243,11 @@
         <f t="shared" si="4"/>
         <v>66.578259999999986</v>
       </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -6105,16 +6257,17 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="28"/>
-    </row>
-    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="str">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6129,10 +6282,11 @@
         <f>H44/4</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="28"/>
-    </row>
-    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="50" t="s">
         <v>6</v>
       </c>
@@ -6158,10 +6312,11 @@
         <f>H45/4</f>
         <v>0.01</v>
       </c>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-    </row>
-    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="63" t="s">
         <v>8</v>
       </c>
@@ -6179,10 +6334,11 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="54" t="s">
         <v>10</v>
       </c>
@@ -6210,10 +6366,11 @@
         <f t="shared" si="5"/>
         <v>66.580759999999984</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-    </row>
-    <row r="48" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -6222,11 +6379,11 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="11"/>
       <c r="K49" s="31"/>
       <c r="L49" s="45"/>
@@ -6287,12 +6444,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70" t="str">
+      <c r="B54" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6374,7 +6531,7 @@
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="str">
         <f>B2</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6404,11 +6561,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6559,12 +6716,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="70" t="str">
+      <c r="B68" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6683,12 +6840,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="72"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -6796,11 +6953,11 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="11"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
@@ -6861,12 +7018,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="70" t="str">
+      <c r="B83" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -6944,7 +7101,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f>B31</f>
-        <v>Consumo Energía JULIO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -6972,11 +7129,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="75"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7121,12 +7278,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="70" t="str">
+      <c r="B97" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7237,12 +7394,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="70" t="str">
+      <c r="B102" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7340,11 +7497,11 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="77"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="80"/>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -7395,12 +7552,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="70" t="str">
+      <c r="B112" s="73" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="71"/>
-      <c r="D112" s="72"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="75"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7441,11 +7598,6 @@
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7453,7 +7605,13 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
     <sheet name="JUL 2015" sheetId="2" r:id="rId2"/>
     <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
+    <sheet name="SET 2015" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="57">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -163,6 +169,39 @@
   <si>
     <t>Consumo Energía AGOSTO 2015</t>
   </si>
+  <si>
+    <t>(17/09/15)</t>
+  </si>
+  <si>
+    <t>Interés Compensatorio</t>
+  </si>
+  <si>
+    <t>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</t>
+  </si>
+  <si>
+    <t>MEDIDOR 2 - M2 (Srta. Maria)</t>
+  </si>
+  <si>
+    <t>Consumo Energía SETIEMBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 05-OCT-2015</t>
+  </si>
+  <si>
+    <t>HISTORIA DPTO 2</t>
+  </si>
+  <si>
+    <t>Kwh</t>
+  </si>
+  <si>
+    <t>Lectura luz del sur</t>
+  </si>
+  <si>
+    <t>Coco se mudó al Dpto 1</t>
+  </si>
+  <si>
+    <t>Se alquiló el Dpto 2</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +212,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;S/.&quot;\ #,##0.0;[Red]&quot;S/.&quot;\ \-#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +292,13 @@
       <b/>
       <sz val="6"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,6 +725,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,21 +743,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1046,11 +1097,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1171,7 +1222,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="79"/>
@@ -1290,7 +1341,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="79"/>
@@ -1396,7 +1447,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="79"/>
@@ -1449,11 +1500,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1564,11 +1615,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1697,12 +1748,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1818,12 +1869,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="76" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -1930,7 +1981,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="79"/>
@@ -1993,12 +2044,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2109,11 +2160,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2242,12 +2293,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="76" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="78"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2363,12 +2414,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2476,7 +2527,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="79"/>
@@ -2539,12 +2590,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="76" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="78"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2649,11 +2700,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2777,12 +2828,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="76" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="77"/>
-      <c r="D93" s="78"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -2890,12 +2941,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="76" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -2993,7 +3044,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="76" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="79"/>
@@ -3046,12 +3097,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="76" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="78"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3084,6 +3135,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3099,11 +3155,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3114,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -3175,11 +3226,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3300,11 +3351,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3419,11 +3470,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3525,11 +3576,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,11 +3629,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3694,11 +3745,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3827,12 +3878,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="str">
+      <c r="B37" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -3948,12 +3999,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="76" t="str">
+      <c r="B42" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4061,7 +4112,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="79"/>
@@ -4126,12 +4177,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="str">
+      <c r="B52" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="78"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4243,11 +4294,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4376,12 +4427,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="76" t="str">
+      <c r="B65" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="78"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4497,12 +4548,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76" t="str">
+      <c r="B70" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4610,7 +4661,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="79"/>
@@ -4675,12 +4726,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="76" t="str">
+      <c r="B80" s="73" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="78"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4786,11 +4837,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -4914,12 +4965,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="76" t="str">
+      <c r="B93" s="73" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="77"/>
-      <c r="D93" s="78"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5027,12 +5078,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="76" t="str">
+      <c r="B98" s="73" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5130,7 +5181,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="76" t="s">
+      <c r="B103" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="79"/>
@@ -5185,12 +5236,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="76" t="str">
+      <c r="B108" s="73" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="78"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5223,6 +5274,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5235,14 +5294,6 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5252,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J55"/>
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,11 +5364,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5515,11 +5566,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5666,11 +5717,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5803,11 +5854,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,11 +5907,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -5972,11 +6023,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6133,12 +6184,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="str">
+      <c r="B39" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6262,12 +6313,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="str">
+      <c r="B44" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6379,7 +6430,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="79"/>
@@ -6444,12 +6495,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="76" t="str">
+      <c r="B54" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6561,11 +6612,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6716,12 +6767,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="76" t="str">
+      <c r="B68" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="78"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6840,12 +6891,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="76" t="str">
+      <c r="B73" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="78"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -6953,7 +7004,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="79"/>
@@ -7018,12 +7069,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="76" t="str">
+      <c r="B83" s="73" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="78"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7129,11 +7180,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="74"/>
-      <c r="D91" s="75"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7278,12 +7329,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="76" t="str">
+      <c r="B97" s="73" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="77"/>
-      <c r="D97" s="78"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7394,12 +7445,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="76" t="str">
+      <c r="B102" s="73" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="78"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7497,7 +7548,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="79"/>
@@ -7552,12 +7603,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="str">
+      <c r="B112" s="73" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="78"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="75"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7590,6 +7641,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7602,6 +7661,2415 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="53">
+        <v>30363.5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="M5" s="14">
+        <f>(H5/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="64">
+        <v>29923.4</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f>(H6/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(H6/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(H6/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(H6/4)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="55">
+        <f>(C5-C6)</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H7" s="20">
+        <f>(C7*G7)</f>
+        <v>196.72469999999936</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21">
+        <f>(C13*G7)</f>
+        <v>15.108599999999992</v>
+      </c>
+      <c r="K7" s="21">
+        <f>(C18*G7)</f>
+        <v>30.574800000000018</v>
+      </c>
+      <c r="L7" s="21">
+        <f>(C23*G7)</f>
+        <v>33.4803</v>
+      </c>
+      <c r="M7" s="21">
+        <f>(C26*G7)</f>
+        <v>117.56099999999934</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
+        <v>7.88</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <f>(H8/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K8" s="14">
+        <f>(H8/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="L8" s="14">
+        <f>(H8/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="M8" s="14">
+        <f>(H8/4)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f>H9/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="14">
+        <f>H9/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="14">
+        <f>H9/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="M9" s="14">
+        <f>H9/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <f>((SUM(H5:H8)+H9)*0.18)</f>
+        <v>37.503845999999882</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" ref="I10:M10" si="0">((SUM(I5:I8)+I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2428979999999981</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.0268140000000043</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.5498039999999991</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>21.684329999999878</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="53">
+        <v>242.2</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3.39</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
+        <f>(H11/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(H11/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="L11" s="14">
+        <f>(H11/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="M11" s="14">
+        <f>(H11/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="64">
+        <v>208.4</v>
+      </c>
+      <c r="D12" s="62" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="55">
+        <f>(C11-C12)</f>
+        <v>33.799999999999983</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>249.24854599999924</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" ref="I13:M13" si="1">SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>22.106497999999988</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>40.356614000000029</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
+        <v>43.785103999999997</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="1"/>
+        <v>143.00032999999922</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <f>H15/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K15" s="13">
+        <f>H15/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L15" s="13">
+        <f>H15/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M15" s="13">
+        <f>H15/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="53">
+        <v>343.8</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="30">
+        <f>(H16/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="30">
+        <f>(H16/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="30">
+        <f>(H16/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="30">
+        <f>(H16/4)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="64">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D17" s="62" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="55">
+        <f>(C16-C17)</f>
+        <v>68.400000000000034</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35">
+        <f>(H13+H15-H16)</f>
+        <v>249.19854599999923</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" ref="I18:M18" si="2">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="2"/>
+        <v>22.093997999999988</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="2"/>
+        <v>40.344114000000026</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="2"/>
+        <v>43.772603999999994</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" si="2"/>
+        <v>142.98782999999921</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="53">
+        <v>223.9</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="64">
+        <v>149</v>
+      </c>
+      <c r="D22" s="62" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="55">
+        <f>(C21-C22)</f>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="39">
+        <f>(C7-SUM(C13,C18,C23))</f>
+        <v>262.99999999999852</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42">
+        <f>J18</f>
+        <v>22.093997999999988</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="33"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+    </row>
+    <row r="28" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="33"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <f>B2</f>
+        <v>Consumo Energía SETIEMBRE 2015</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="71"/>
+      <c r="J33" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <f>C5</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14">
+        <f>(H34/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="61">
+        <f>C6</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D35" s="62" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f>H6</f>
+        <v>1.2</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14">
+        <f>(H35/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18">
+        <f>C7</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="12">
+        <f>G7</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H36" s="20">
+        <f>(C36*G36)</f>
+        <v>196.72469999999936</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21">
+        <f>(C47*G36)</f>
+        <v>30.574800000000018</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13">
+        <f>H8</f>
+        <v>7.88</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14">
+        <f>(H37/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
+        <f>H9</f>
+        <v>0.08</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14">
+        <f>J9</f>
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="73" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f>((SUM(H34:H37)-H38)*0.18)</f>
+        <v>37.475045999999878</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" ref="I39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <f>((SUM(J34:J37)-J38)*0.18)</f>
+        <v>6.0196140000000025</v>
+      </c>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="51">
+        <f>C11</f>
+        <v>242.2</v>
+      </c>
+      <c r="D40" s="27" t="str">
+        <f>D34</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H40" s="13">
+        <f>H11</f>
+        <v>3.39</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14">
+        <f>(H40/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="64">
+        <f>C12</f>
+        <v>208.4</v>
+      </c>
+      <c r="D41" s="62" t="str">
+        <f>D35</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="55">
+        <f>C13</f>
+        <v>33.799999999999983</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13">
+        <f>SUM(H34:H38)+SUM(H39:H40)</f>
+        <v>249.21974599999925</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" ref="I42:J42" si="4">SUM(I34:I38)+SUM(I39:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="4"/>
+        <v>40.349414000000024</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13">
+        <f>H15</f>
+        <v>0.03</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13">
+        <f>H44/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="51">
+        <f>C16</f>
+        <v>343.8</v>
+      </c>
+      <c r="D45" s="27" t="str">
+        <f>D40</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>H16</f>
+        <v>0.08</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="30">
+        <f>H45/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="64">
+        <f>C17</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D46" s="62" t="str">
+        <f>D41</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="55">
+        <f>C18</f>
+        <v>68.400000000000034</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35">
+        <f>(H42+H44-H45)</f>
+        <v>249.16974599999924</v>
+      </c>
+      <c r="I47" s="35">
+        <f t="shared" ref="I47:J47" si="5">(I42+I44-I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="5"/>
+        <v>40.336914000000021</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="11"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="11"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="51">
+        <f>C21</f>
+        <v>223.9</v>
+      </c>
+      <c r="D50" s="27" t="str">
+        <f>D34</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="64">
+        <f>C22</f>
+        <v>149</v>
+      </c>
+      <c r="D51" s="62" t="str">
+        <f>D35</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="55">
+        <f>C23</f>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="11"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="73" t="str">
+        <f>B25</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="39">
+        <f>C26</f>
+        <v>262.99999999999852</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42">
+        <f>J47</f>
+        <v>40.336914000000021</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F57" s="33"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="58"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="47"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="str">
+        <f>B2</f>
+        <v>Consumo Energía SETIEMBRE 2015</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="9">
+        <f>C34</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D63" s="10" t="str">
+        <f>D34</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14">
+        <f>(H63/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="61">
+        <f>C35</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D64" s="62" t="str">
+        <f>D35</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13">
+        <f>H6</f>
+        <v>1.2</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14">
+        <f>(H64/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="18">
+        <f>C36</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12">
+        <f>G7</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H65" s="20">
+        <f>(C65*G65)</f>
+        <v>196.72469999999936</v>
+      </c>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21">
+        <f>(C81*G65)</f>
+        <v>33.4803</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13">
+        <f>H8</f>
+        <v>7.88</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14">
+        <f>(H66/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="28"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f>H9</f>
+        <v>0.08</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <f>J9</f>
+        <v>0.02</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="28"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="73" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C68" s="74"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f>((SUM(H63:H66)-H67)*0.18)</f>
+        <v>37.475045999999878</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" ref="I68:J68" si="6">((SUM(I63:I66)-I67)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <f t="shared" si="6"/>
+        <v>6.5426039999999981</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="28"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="51">
+        <f>C11</f>
+        <v>242.2</v>
+      </c>
+      <c r="D69" s="27" t="str">
+        <f>D63</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H69" s="13">
+        <f>H11</f>
+        <v>3.39</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14">
+        <f>(H69/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K69" s="56"/>
+      <c r="L69" s="57"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="64">
+        <f>C12</f>
+        <v>208.4</v>
+      </c>
+      <c r="D70" s="62" t="str">
+        <f>D64</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="28"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="55">
+        <f>C13</f>
+        <v>33.799999999999983</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13">
+        <f>SUM(H63:H67)+SUM(H68:H69)</f>
+        <v>249.21974599999925</v>
+      </c>
+      <c r="I71" s="13">
+        <f t="shared" ref="I71:J71" si="7">SUM(I63:I67)+SUM(I68:I69)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <f t="shared" si="7"/>
+        <v>43.777903999999999</v>
+      </c>
+      <c r="K71" s="31"/>
+      <c r="L71" s="28"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="73" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
+      </c>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13">
+        <f>H15</f>
+        <v>0.03</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13">
+        <f>H73/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="51">
+        <f>C16</f>
+        <v>343.8</v>
+      </c>
+      <c r="D74" s="27" t="str">
+        <f>D69</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13">
+        <f>H16</f>
+        <v>0.08</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="30">
+        <f>H74/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="64">
+        <f>C17</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D75" s="62" t="str">
+        <f>D70</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="45"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="55">
+        <f>C18</f>
+        <v>68.400000000000034</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35">
+        <f>(H71+H73-H74)</f>
+        <v>249.16974599999924</v>
+      </c>
+      <c r="I76" s="35">
+        <f t="shared" ref="I76:J76" si="8">(I71+I73-I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="35">
+        <f t="shared" si="8"/>
+        <v>43.765403999999997</v>
+      </c>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="11"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="11"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="51">
+        <f>C21</f>
+        <v>223.9</v>
+      </c>
+      <c r="D79" s="27" t="str">
+        <f>D63</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="64">
+        <f>C22</f>
+        <v>149</v>
+      </c>
+      <c r="D80" s="62" t="str">
+        <f>D64</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="55">
+        <f>C23</f>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="11"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="73" t="str">
+        <f>B25</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="67"/>
+      <c r="H83" s="68"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="39">
+        <f>C26</f>
+        <v>262.99999999999852</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42">
+        <f>J76</f>
+        <v>43.765403999999997</v>
+      </c>
+      <c r="I84" s="35"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="45"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F85" s="33"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I86" s="43"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="45"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="str">
+        <f>B1</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="45"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="str">
+        <f>B31</f>
+        <v>Consumo Energía SETIEMBRE 2015</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="48" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+      </c>
+      <c r="K89" s="45"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="45"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="77"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="6"/>
+      <c r="J91" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="45"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="9">
+        <f>C63</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D92" s="10" t="str">
+        <f>D63</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13">
+        <f>H34</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="14">
+        <f>(H92/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="61">
+        <f>C64</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D93" s="62" t="str">
+        <f>D64</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13">
+        <f>H35</f>
+        <v>1.2</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14">
+        <f>(H93/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K93" s="45"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="18">
+        <f>C65</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="12">
+        <f>G7</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H94" s="20">
+        <f>(C94*G94)</f>
+        <v>196.72469999999936</v>
+      </c>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21">
+        <f>(C113*G94)</f>
+        <v>117.56099999999934</v>
+      </c>
+      <c r="K94" s="45"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13">
+        <f>H37</f>
+        <v>7.88</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="14">
+        <f>(H95/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K95" s="45"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13">
+        <f>H9</f>
+        <v>0.08</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="14">
+        <f>J9</f>
+        <v>0.02</v>
+      </c>
+      <c r="K96" s="45"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="73" t="str">
+        <f>B10</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13">
+        <f>((SUM(H92:H95)-H96)*0.18)</f>
+        <v>37.475045999999878</v>
+      </c>
+      <c r="I97" s="13">
+        <f t="shared" ref="I97:J97" si="9">((SUM(I92:I95)-I96)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13">
+        <f t="shared" si="9"/>
+        <v>21.677129999999881</v>
+      </c>
+      <c r="K97" s="45"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="51">
+        <f>C11</f>
+        <v>242.2</v>
+      </c>
+      <c r="D98" s="27" t="str">
+        <f>D92</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="12">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H98" s="13">
+        <f>H40</f>
+        <v>3.39</v>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="14">
+        <f>(H98/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K98" s="45"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="64">
+        <f>C12</f>
+        <v>208.4</v>
+      </c>
+      <c r="D99" s="62" t="str">
+        <f>D93</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="55">
+        <f>C13</f>
+        <v>33.799999999999983</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13">
+        <f>SUM(H92:H96)+SUM(H97:H98)</f>
+        <v>249.21974599999925</v>
+      </c>
+      <c r="I100" s="13">
+        <f t="shared" ref="I100:J100" si="10">SUM(I92:I96)+SUM(I97:I98)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="13">
+        <f t="shared" si="10"/>
+        <v>142.99312999999921</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="73" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13">
+        <f>H44</f>
+        <v>0.03</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13">
+        <f>H102/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="51">
+        <f>C16</f>
+        <v>343.8</v>
+      </c>
+      <c r="D103" s="27" t="str">
+        <f>D98</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13">
+        <f>H45</f>
+        <v>0.08</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="30">
+        <f>H103/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="64">
+        <f>C17</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="D104" s="62" t="str">
+        <f>D99</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="55">
+        <f>C18</f>
+        <v>68.400000000000034</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="34"/>
+      <c r="H105" s="35">
+        <f>(H100+H102-H103)</f>
+        <v>249.16974599999924</v>
+      </c>
+      <c r="I105" s="35">
+        <f t="shared" ref="I105:J105" si="11">(I100+I102-I103)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="35">
+        <f t="shared" si="11"/>
+        <v>142.98062999999919</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="79"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="51">
+        <f>C21</f>
+        <v>223.9</v>
+      </c>
+      <c r="D108" s="27" t="str">
+        <f>D92</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="64">
+        <f>C22</f>
+        <v>149</v>
+      </c>
+      <c r="D109" s="62" t="str">
+        <f>D93</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E109" s="11"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="55">
+        <f>C23</f>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="73" t="str">
+        <f>B54</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C112" s="74"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="67"/>
+      <c r="H112" s="68"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="39">
+        <f>C26</f>
+        <v>262.99999999999852</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="41"/>
+      <c r="H113" s="43">
+        <f>J105</f>
+        <v>142.98062999999919</v>
+      </c>
+      <c r="I113" s="35"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="82">
+        <v>42234</v>
+      </c>
+      <c r="D120">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="E120" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="82">
+        <v>42251</v>
+      </c>
+      <c r="D121">
+        <v>316.5</v>
+      </c>
+      <c r="E121" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="82">
+        <v>42259</v>
+      </c>
+      <c r="D122">
+        <v>338.5</v>
+      </c>
+      <c r="E122" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="82">
+        <v>42264</v>
+      </c>
+      <c r="D123">
+        <v>343.8</v>
+      </c>
+      <c r="E123" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="B73:D73"/>
@@ -7610,8 +10078,20 @@
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="67">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -202,6 +197,36 @@
   <si>
     <t>Se alquiló el Dpto 2</t>
   </si>
+  <si>
+    <t>ultimos dias coco dpto 2</t>
+  </si>
+  <si>
+    <t>consumo corresponde abel</t>
+  </si>
+  <si>
+    <t>consumo mariajesus</t>
+  </si>
+  <si>
+    <t>15 dias</t>
+  </si>
+  <si>
+    <t>10 dias</t>
+  </si>
+  <si>
+    <t>5 dias</t>
+  </si>
+  <si>
+    <t>Srta. Maria Jesus</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;S/.&quot;\ #,##0.0;[Red]&quot;S/.&quot;\ \-#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +323,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -533,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,6 +773,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,26 +796,46 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1222,11 +1304,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -1341,11 +1423,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -1447,11 +1529,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,11 +1582,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1748,12 +1830,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="73" t="str">
+      <c r="B37" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1869,12 +1951,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="str">
+      <c r="B42" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -1981,11 +2063,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -2044,12 +2126,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="73" t="str">
+      <c r="B52" s="79" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2293,12 +2375,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="73" t="str">
+      <c r="B65" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2414,12 +2496,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="73" t="str">
+      <c r="B70" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2527,11 +2609,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -2590,12 +2672,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73" t="str">
+      <c r="B80" s="79" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2828,12 +2910,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="73" t="str">
+      <c r="B93" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="75"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="81"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -2941,12 +3023,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="73" t="str">
+      <c r="B98" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="75"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3044,11 +3126,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,12 +3179,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="73" t="str">
+      <c r="B108" s="79" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="75"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3135,11 +3217,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3155,6 +3232,11 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3351,11 +3433,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3470,11 +3552,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3576,11 +3658,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,11 +3711,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3878,12 +3960,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="73" t="str">
+      <c r="B37" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -3999,12 +4081,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="str">
+      <c r="B42" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4112,11 +4194,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="80"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -4177,12 +4259,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="73" t="str">
+      <c r="B52" s="79" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4427,12 +4509,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="73" t="str">
+      <c r="B65" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4548,12 +4630,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="73" t="str">
+      <c r="B70" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4661,11 +4743,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -4726,12 +4808,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73" t="str">
+      <c r="B80" s="79" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4965,12 +5047,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="73" t="str">
+      <c r="B93" s="79" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="75"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="81"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5078,12 +5160,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="73" t="str">
+      <c r="B98" s="79" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="75"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5181,11 +5263,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,12 +5318,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="73" t="str">
+      <c r="B108" s="79" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="75"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5274,14 +5356,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5294,6 +5368,14 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,11 +5648,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5717,11 +5799,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5854,11 +5936,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5907,11 +5989,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6184,12 +6266,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="str">
+      <c r="B39" s="79" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6313,12 +6395,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="str">
+      <c r="B44" s="79" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6430,11 +6512,11 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="11"/>
       <c r="K49" s="31"/>
       <c r="L49" s="45"/>
@@ -6495,12 +6577,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="73" t="str">
+      <c r="B54" s="79" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6767,12 +6849,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="73" t="str">
+      <c r="B68" s="79" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6891,12 +6973,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="73" t="str">
+      <c r="B73" s="79" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7004,11 +7086,11 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="11"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
@@ -7069,12 +7151,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="73" t="str">
+      <c r="B83" s="79" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7329,12 +7411,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="73" t="str">
+      <c r="B97" s="79" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="75"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7445,12 +7527,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="73" t="str">
+      <c r="B102" s="79" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="75"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7548,11 +7630,11 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="79"/>
-      <c r="D107" s="80"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -7603,12 +7685,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="73" t="str">
+      <c r="B112" s="79" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="75"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="81"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7641,14 +7723,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7661,6 +7735,14 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7669,13 +7751,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M123"/>
+  <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -7690,637 +7772,628 @@
     <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="87" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="65" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="69" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M5" s="65" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C6" s="53">
         <v>30363.5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14">
-        <f>(H5/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K5" s="14">
-        <f>(H5/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="L5" s="14">
-        <f>(H5/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="M5" s="14">
-        <f>(H5/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="64">
-        <v>29923.4</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13">
-        <v>1.2</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="14">
         <f>(H6/4)</f>
-        <v>0.3</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="K6" s="14">
         <f>(H6/4)</f>
-        <v>0.3</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="L6" s="14">
         <f>(H6/4)</f>
-        <v>0.3</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="M6" s="14">
         <f>(H6/4)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="55">
-        <f>(C5-C6)</f>
-        <v>440.09999999999854</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>11</v>
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="64">
+        <v>29923.4</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55">
+        <f>(C6-C7)</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G8" s="73">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H7" s="20">
-        <f>(C7*G7)</f>
+      <c r="H8" s="20">
+        <f>(C8*G8)</f>
         <v>196.72469999999936</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21">
-        <f>(C13*G7)</f>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21">
+        <f>(C14*G8)</f>
         <v>15.108599999999992</v>
       </c>
-      <c r="K7" s="21">
-        <f>(C18*G7)</f>
+      <c r="K8" s="21">
+        <f>(C19*G8)</f>
         <v>30.574800000000018</v>
       </c>
-      <c r="L7" s="21">
-        <f>(C23*G7)</f>
+      <c r="L8" s="21">
+        <f>(C24*G8)</f>
         <v>33.4803</v>
       </c>
-      <c r="M7" s="21">
-        <f>(C26*G7)</f>
+      <c r="M8" s="21">
+        <f>(C27*G8)</f>
         <v>117.56099999999934</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13">
-        <v>7.88</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
-        <f>(H8/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="K8" s="14">
-        <f>(H8/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="L8" s="14">
-        <f>(H8/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="M8" s="14">
-        <f>(H8/4)</f>
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>0.08</v>
+        <v>7.88</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14">
-        <f>H9/4</f>
-        <v>0.02</v>
+        <f>(H9/4)</f>
+        <v>1.97</v>
       </c>
       <c r="K9" s="14">
-        <f>H9/4</f>
-        <v>0.02</v>
+        <f>(H9/4)</f>
+        <v>1.97</v>
       </c>
       <c r="L9" s="14">
-        <f>H9/4</f>
-        <v>0.02</v>
+        <f>(H9/4)</f>
+        <v>1.97</v>
       </c>
       <c r="M9" s="14">
-        <f>H9/4</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13">
-        <f>((SUM(H5:H8)+H9)*0.18)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f>((SUM(H6:H9)+H10)*0.18)</f>
         <v>37.503845999999882</v>
       </c>
-      <c r="I10" s="13">
-        <f t="shared" ref="I10:M10" si="0">((SUM(I5:I8)+I9)*0.18)</f>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
+      <c r="J11" s="13">
+        <f>((SUM(J6:J9)+J10)*0.18)</f>
         <v>3.2428979999999981</v>
       </c>
-      <c r="K10" s="13">
-        <f t="shared" si="0"/>
+      <c r="K11" s="13">
+        <f>((SUM(K6:K9)+K10)*0.18)</f>
         <v>6.0268140000000043</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>6.5498039999999991</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
         <v>21.684329999999878</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C12" s="53">
         <v>242.2</v>
       </c>
-      <c r="D11" s="10" t="str">
-        <f>D5</f>
+      <c r="D12" s="10" t="str">
+        <f>D6</f>
         <v>(17/09/15)</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>3.39</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14">
-        <f>(H11/4)</f>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
+        <f>(H12/4)</f>
         <v>0.84750000000000003</v>
       </c>
-      <c r="K11" s="14">
-        <f>(H11/4)</f>
+      <c r="K12" s="14">
+        <f>(H12/4)</f>
         <v>0.84750000000000003</v>
       </c>
-      <c r="L11" s="14">
-        <f>(H11/4)</f>
+      <c r="L12" s="14">
+        <f>(H12/4)</f>
         <v>0.84750000000000003</v>
       </c>
-      <c r="M11" s="14">
-        <f>(H11/4)</f>
+      <c r="M12" s="14">
+        <f>(H12/4)</f>
         <v>0.84750000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C13" s="64">
         <v>208.4</v>
       </c>
-      <c r="D12" s="62" t="str">
-        <f>D6</f>
+      <c r="D13" s="62" t="str">
+        <f>D7</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="55">
-        <f>(C11-C12)</f>
+      <c r="C14" s="55">
+        <f>(C12-C13)</f>
         <v>33.799999999999983</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
-        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <f>SUM(H6:H10)+SUM(H11:H12)</f>
         <v>249.24854599999924</v>
       </c>
-      <c r="I13" s="13">
-        <f t="shared" ref="I13:M13" si="1">SUM(I5:I9)+SUM(I10:I11)</f>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <f t="shared" si="1"/>
         <v>22.106497999999988</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <f t="shared" si="1"/>
         <v>40.356614000000029</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>43.785103999999997</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M14" s="13">
         <f t="shared" si="1"/>
         <v>143.00032999999922</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <f>H15/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K15" s="13">
-        <f>H15/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="L15" s="13">
-        <f>H15/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M15" s="13">
-        <f>H15/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="53">
-        <v>343.8</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f>D5</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="53">
+        <v>343.8</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
         <v>0.08</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="30">
-        <f>(H16/4)</f>
+      <c r="I17" s="13"/>
+      <c r="J17" s="30">
+        <f>(H17/4)</f>
         <v>0.02</v>
       </c>
-      <c r="K16" s="30">
-        <f>(H16/4)</f>
+      <c r="K17" s="30">
+        <f>(H17/4)</f>
         <v>0.02</v>
       </c>
-      <c r="L16" s="30">
-        <f>(H16/4)</f>
+      <c r="L17" s="30">
+        <f>(H17/4)</f>
         <v>0.02</v>
       </c>
-      <c r="M16" s="30">
-        <f>(H16/4)</f>
+      <c r="M17" s="30">
+        <f>(H17/4)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+    <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C18" s="64">
         <v>275.39999999999998</v>
       </c>
-      <c r="D17" s="62" t="str">
-        <f>D6</f>
+      <c r="D18" s="62" t="str">
+        <f>D7</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="55">
-        <f>(C16-C17)</f>
+      <c r="C19" s="55">
+        <f>(C17-C18)</f>
         <v>68.400000000000034</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="33" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35">
-        <f>(H13+H15-H16)</f>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35">
+        <f>(H14+H16-H17)</f>
         <v>249.19854599999923</v>
       </c>
-      <c r="I18" s="35">
-        <f t="shared" ref="I18:M18" si="2">(I13+I15-I16)</f>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J19" s="35">
         <f t="shared" si="2"/>
         <v>22.093997999999988</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K19" s="35">
         <f t="shared" si="2"/>
         <v>40.344114000000026</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L19" s="35">
         <f t="shared" si="2"/>
         <v>43.772603999999994</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M19" s="35">
         <f t="shared" si="2"/>
         <v>142.98782999999921</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73" t="s">
+    <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C22" s="53">
         <v>223.9</v>
       </c>
-      <c r="D21" s="10" t="str">
-        <f>D5</f>
+      <c r="D22" s="10" t="str">
+        <f>D6</f>
         <v>(17/09/15)</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="63" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C23" s="64">
         <v>149</v>
       </c>
-      <c r="D22" s="62" t="str">
-        <f>D6</f>
+      <c r="D23" s="62" t="str">
+        <f>D7</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="55">
-        <f>(C21-C22)</f>
+      <c r="C24" s="55">
+        <f>C22-C23</f>
         <v>74.900000000000006</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="73" t="s">
+    <row r="25" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="66" t="s">
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-    </row>
-    <row r="26" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="39">
-        <f>(C7-SUM(C13,C18,C23))</f>
+      <c r="C27" s="39">
+        <f>(C8-SUM(C14,C19,C24))</f>
         <v>262.99999999999852</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D27" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42">
-        <f>J18</f>
+      <c r="E27" s="11"/>
+      <c r="F27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42">
+        <f>J19</f>
         <v>22.093997999999988</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="33"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-    </row>
-    <row r="28" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="35"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="33"/>
       <c r="G28" s="41"/>
       <c r="H28" s="43"/>
@@ -8329,1767 +8402,1313 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="str">
-        <f>B1</f>
+    <row r="29" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="33"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+    </row>
+    <row r="30" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="str">
+        <f>B2</f>
         <v>Suministro 1395500</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="47"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="str">
-        <f>B2</f>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="86" t="str">
+        <f>B3</f>
         <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="48" t="str">
-        <f>J2</f>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="89" t="str">
+        <f>J3</f>
         <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="45"/>
-    </row>
-    <row r="32" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="9">
-        <f>C5</f>
+      <c r="C35" s="9">
+        <f>C6</f>
         <v>30363.5</v>
       </c>
-      <c r="D34" s="10" t="str">
-        <f>D5</f>
+      <c r="D35" s="10" t="str">
+        <f>D6</f>
         <v>(17/09/15)</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13">
-        <f>H5</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14">
-        <f>(H34/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="61">
-        <f>C6</f>
-        <v>29923.4</v>
-      </c>
-      <c r="D35" s="62" t="str">
-        <f>D6</f>
-        <v>(18/08/15)</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
         <f>H6</f>
-        <v>1.2</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14">
-        <f>(H35/4)</f>
-        <v>0.3</v>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" ref="I35:J37" si="3">I6</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <f>K6</f>
+        <v>0.61750000000000005</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="18">
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="61">
         <f>C7</f>
-        <v>440.09999999999854</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>11</v>
+        <v>29923.4</v>
+      </c>
+      <c r="D36" s="62" t="str">
+        <f>D7</f>
+        <v>(18/08/15)</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
+        <f>H7</f>
+        <v>1.2</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <f>K7</f>
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C8</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="12">
-        <f>G7</f>
+      <c r="G37" s="12">
+        <f>G8</f>
         <v>0.44700000000000001</v>
       </c>
-      <c r="H36" s="20">
-        <f>(C36*G36)</f>
+      <c r="H37" s="20">
+        <f>H8</f>
         <v>196.72469999999936</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21">
-        <f>(C47*G36)</f>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f t="shared" ref="J37:J48" si="4">K8</f>
         <v>30.574800000000018</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13">
-        <f>H8</f>
-        <v>7.88</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14">
-        <f>(H37/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5" t="str">
-        <f>F9</f>
-        <v>Interés Compensatorio</v>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13">
         <f>H9</f>
-        <v>0.08</v>
+        <v>7.88</v>
       </c>
       <c r="I38" s="13"/>
-      <c r="J38" s="14">
-        <f>J9</f>
-        <v>0.02</v>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
+        <v>1.97</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="str">
-        <f>B10</f>
-        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>14</v>
+      <c r="F39" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
-        <f>((SUM(H34:H37)-H38)*0.18)</f>
-        <v>37.475045999999878</v>
-      </c>
-      <c r="I39" s="13">
-        <f t="shared" ref="I39" si="3">((SUM(I34:I37)-I38)*0.18)</f>
-        <v>0</v>
-      </c>
+        <f>H10</f>
+        <v>0.08</v>
+      </c>
+      <c r="I39" s="13"/>
       <c r="J39" s="13">
-        <f>((SUM(J34:J37)-J38)*0.18)</f>
-        <v>6.0196140000000025</v>
-      </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="51">
-        <f>C11</f>
-        <v>242.2</v>
-      </c>
-      <c r="D40" s="27" t="str">
-        <f>D34</f>
-        <v>(17/09/15)</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="79" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="12">
-        <f>G11</f>
-        <v>7.7000000000000002E-3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" s="12"/>
       <c r="H40" s="13">
         <f>H11</f>
+        <v>37.503845999999882</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>6.0268140000000043</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="51">
+        <f>C12</f>
+        <v>242.2</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>D35</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H41" s="13">
+        <f>H12</f>
         <v>3.39</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14">
-        <f>(H40/4)</f>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
         <v>0.84750000000000003</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="64">
-        <f>C12</f>
-        <v>208.4</v>
-      </c>
-      <c r="D41" s="62" t="str">
-        <f>D35</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="s">
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="64">
+        <f>C13</f>
+        <v>208.4</v>
+      </c>
+      <c r="D42" s="62" t="str">
+        <f>D36</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="55">
-        <f>C13</f>
+      <c r="C43" s="55">
+        <f>C14</f>
         <v>33.799999999999983</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="5" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13">
-        <f>SUM(H34:H38)+SUM(H39:H40)</f>
-        <v>249.21974599999925</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" ref="I42:J42" si="4">SUM(I34:I38)+SUM(I39:I40)</f>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13">
+        <f>H14</f>
+        <v>249.24854599999924</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" ref="I43:J43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <f t="shared" si="4"/>
-        <v>40.349414000000024</v>
-      </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-    </row>
-    <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="str">
-        <f>B15</f>
+        <v>40.356614000000029</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="79" t="str">
+        <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="5" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13">
-        <f>H15</f>
-        <v>0.03</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13">
-        <f>H44/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="51">
-        <f>C16</f>
-        <v>343.8</v>
-      </c>
-      <c r="D45" s="27" t="str">
-        <f>D40</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="13">
         <f>H16</f>
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="51">
+        <f>C17</f>
+        <v>343.8</v>
+      </c>
+      <c r="D46" s="27" t="str">
+        <f>D41</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f>H17</f>
         <v>0.08</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="30">
-        <f>H45/4</f>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-    </row>
-    <row r="46" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="63" t="s">
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="64">
-        <f>C17</f>
+      <c r="C47" s="64">
+        <f>C18</f>
         <v>275.39999999999998</v>
       </c>
-      <c r="D46" s="62" t="str">
-        <f>D41</f>
+      <c r="D47" s="62" t="str">
+        <f>D42</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-    </row>
-    <row r="47" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="54" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="55">
-        <f>C18</f>
+      <c r="C48" s="55">
+        <f>C19</f>
         <v>68.400000000000034</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="33" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35">
-        <f>(H42+H44-H45)</f>
-        <v>249.16974599999924</v>
-      </c>
-      <c r="I47" s="35">
-        <f t="shared" ref="I47:J47" si="5">(I42+I44-I45)</f>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35">
+        <f>(H43+H45-H46)</f>
+        <v>249.19854599999923</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" ref="I48:J48" si="7">(I43+I45-I46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="35">
-        <f t="shared" si="5"/>
-        <v>40.336914000000021</v>
-      </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-    </row>
-    <row r="48" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="11"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="45"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
+      <c r="J48" s="20">
+        <f t="shared" si="4"/>
+        <v>40.344114000000026</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="11"/>
       <c r="K49" s="31"/>
       <c r="L49" s="45"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="51">
-        <f>C21</f>
-        <v>223.9</v>
-      </c>
-      <c r="D50" s="27" t="str">
-        <f>D34</f>
-        <v>(17/09/15)</v>
-      </c>
+    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="11"/>
       <c r="K50" s="31"/>
       <c r="L50" s="45"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="64">
+    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="51">
         <f>C22</f>
-        <v>149</v>
-      </c>
-      <c r="D51" s="62" t="str">
+        <v>223.9</v>
+      </c>
+      <c r="D51" s="27" t="str">
         <f>D35</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E51" s="11"/>
       <c r="K51" s="31"/>
       <c r="L51" s="45"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="55">
+    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="64">
         <f>C23</f>
-        <v>74.900000000000006</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>11</v>
+        <v>149</v>
+      </c>
+      <c r="D52" s="62" t="str">
+        <f>D36</f>
+        <v>(18/08/15)</v>
       </c>
       <c r="E52" s="11"/>
       <c r="K52" s="31"/>
       <c r="L52" s="45"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="55">
+        <f>C24</f>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E53" s="11"/>
       <c r="K53" s="31"/>
       <c r="L53" s="45"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="73" t="str">
-        <f>B25</f>
+    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="79" t="str">
+        <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="66" t="s">
+      <c r="C55" s="80"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="39">
-        <f>C26</f>
-        <v>262.99999999999852</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42">
-        <f>J47</f>
-        <v>40.336914000000021</v>
-      </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="5"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="39">
+        <f>C27</f>
+        <v>262.99999999999852</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42">
+        <f>J48</f>
+        <v>40.344114000000026</v>
+      </c>
+      <c r="I56" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="5"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F57" s="33"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="43"/>
+    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" s="43"/>
       <c r="J57" s="44"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="58"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="45"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="33"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="45"/>
-      <c r="L58" s="47"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="str">
-        <f>B1</f>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="33"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="86" t="str">
+        <f>B2</f>
         <v>Suministro 1395500</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="str">
-        <f>B2</f>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="86" t="str">
+        <f>B32</f>
         <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="48" t="str">
-        <f>J2</f>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="89" t="str">
+        <f>J3</f>
         <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="16"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="76" t="s">
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="65" t="s">
+      <c r="C66" s="77"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="65" t="s">
+      <c r="G66" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H66" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+      <c r="I66" s="6"/>
+      <c r="J66" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="9">
-        <f>C34</f>
+      <c r="C67" s="9">
+        <f>C6</f>
         <v>30363.5</v>
       </c>
-      <c r="D63" s="10" t="str">
-        <f>D34</f>
+      <c r="D67" s="10" t="str">
+        <f>D6</f>
         <v>(17/09/15)</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13">
-        <f>H5</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14">
-        <f>(H63/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K63" s="15"/>
-      <c r="L63" s="16"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="61">
-        <f>C35</f>
-        <v>29923.4</v>
-      </c>
-      <c r="D64" s="62" t="str">
-        <f>D35</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13">
-        <f>H6</f>
-        <v>1.2</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14">
-        <f>(H64/4)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="18">
-        <f>C36</f>
-        <v>440.09999999999854</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="12">
-        <f>G7</f>
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H65" s="20">
-        <f>(C65*G65)</f>
-        <v>196.72469999999936</v>
-      </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21">
-        <f>(C81*G65)</f>
-        <v>33.4803</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13">
-        <f>H8</f>
-        <v>7.88</v>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14">
-        <f>(H66/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="K66" s="15"/>
-      <c r="L66" s="28"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="str">
-        <f>F9</f>
-        <v>Interés Compensatorio</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="13">
-        <f>H9</f>
-        <v>0.08</v>
+        <f>H6</f>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="14">
-        <f>J9</f>
-        <v>0.02</v>
-      </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="28"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="73" t="str">
-        <f>B10</f>
-        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
-      </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="5"/>
+        <f>M6</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="61">
+        <f>C7</f>
+        <v>29923.4</v>
+      </c>
+      <c r="D68" s="62" t="str">
+        <f>D7</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E68" s="11"/>
       <c r="F68" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="13">
-        <f>((SUM(H63:H66)-H67)*0.18)</f>
-        <v>37.475045999999878</v>
-      </c>
-      <c r="I68" s="13">
-        <f t="shared" ref="I68:J68" si="6">((SUM(I63:I66)-I67)*0.18)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="13">
-        <f t="shared" si="6"/>
-        <v>6.5426039999999981</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="28"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="51">
-        <f>C11</f>
-        <v>242.2</v>
-      </c>
-      <c r="D69" s="27" t="str">
-        <f>D63</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E69" s="5"/>
+        <f>H7</f>
+        <v>1.2</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14">
+        <f>M7</f>
+        <v>0.3</v>
+      </c>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="18">
+        <f>C8</f>
+        <v>440.09999999999854</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="11"/>
       <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="12">
-        <f>G11</f>
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="H69" s="13">
-        <f>H11</f>
-        <v>3.39</v>
-      </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="14">
-        <f>(H69/4)</f>
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="K69" s="56"/>
-      <c r="L69" s="57"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="64">
-        <f>C12</f>
-        <v>208.4</v>
-      </c>
-      <c r="D70" s="62" t="str">
-        <f>D64</f>
-        <v>(18/08/15)</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G69" s="73">
+        <f>G8</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <v>196.72469999999936</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21">
+        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <v>117.56099999999934</v>
+      </c>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="13">
+        <f t="shared" si="8"/>
+        <v>7.88</v>
+      </c>
       <c r="I70" s="13"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="28"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="55">
-        <f>C13</f>
-        <v>33.799999999999983</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="5" t="s">
-        <v>16</v>
+      <c r="J70" s="14">
+        <f t="shared" si="9"/>
+        <v>1.97</v>
+      </c>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="13">
-        <f>SUM(H63:H67)+SUM(H68:H69)</f>
-        <v>249.21974599999925</v>
-      </c>
-      <c r="I71" s="13">
-        <f t="shared" ref="I71:J71" si="7">SUM(I63:I67)+SUM(I68:I69)</f>
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="79" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13">
+        <f t="shared" si="8"/>
+        <v>37.503845999999882</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" ref="I72:J72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="13">
-        <f t="shared" si="7"/>
-        <v>43.777903999999999</v>
-      </c>
-      <c r="K71" s="31"/>
-      <c r="L71" s="28"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="73" t="str">
-        <f>B15</f>
+      <c r="J72" s="14">
+        <f t="shared" si="9"/>
+        <v>21.684329999999878</v>
+      </c>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="51">
+        <f>C12</f>
+        <v>242.2</v>
+      </c>
+      <c r="D73" s="27" t="str">
+        <f>D67</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" si="8"/>
+        <v>3.39</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14">
+        <f t="shared" si="9"/>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="64">
+        <f>C13</f>
+        <v>208.4</v>
+      </c>
+      <c r="D74" s="62" t="str">
+        <f>D68</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="55">
+        <f>C14</f>
+        <v>33.799999999999983</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13">
+        <f t="shared" si="8"/>
+        <v>249.24854599999924</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" ref="I75:J75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="9"/>
+        <v>143.00032999999922</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="79" t="str">
+        <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="5" t="s">
+      <c r="C77" s="80"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13">
-        <f>H15</f>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13">
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13">
-        <f>H73/4</f>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14">
+        <f t="shared" si="9"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="50" t="s">
+    </row>
+    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="51">
-        <f>C16</f>
+      <c r="C78" s="51">
+        <f>C17</f>
         <v>343.8</v>
       </c>
-      <c r="D74" s="27" t="str">
-        <f>D69</f>
+      <c r="D78" s="27" t="str">
+        <f>D73</f>
         <v>(17/09/15)</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13">
-        <f>H16</f>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13">
+        <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="30">
-        <f>H74/4</f>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14">
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="63" t="s">
+    </row>
+    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="64">
-        <f>C17</f>
+      <c r="C79" s="64">
+        <f>C18</f>
         <v>275.39999999999998</v>
       </c>
-      <c r="D75" s="62" t="str">
-        <f>D70</f>
+      <c r="D79" s="62" t="str">
+        <f>D74</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="45"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="54" t="s">
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="55">
-        <f>C18</f>
+      <c r="C80" s="55">
+        <f>C19</f>
         <v>68.400000000000034</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D80" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="33" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35">
-        <f>(H71+H73-H74)</f>
-        <v>249.16974599999924</v>
-      </c>
-      <c r="I76" s="35">
-        <f t="shared" ref="I76:J76" si="8">(I71+I73-I74)</f>
+      <c r="G80" s="34"/>
+      <c r="H80" s="20">
+        <f t="shared" si="8"/>
+        <v>249.19854599999923</v>
+      </c>
+      <c r="I80" s="35">
+        <f t="shared" ref="I80:J80" si="12">(I75+I77-I78)</f>
         <v>0</v>
       </c>
-      <c r="J76" s="35">
-        <f t="shared" si="8"/>
-        <v>43.765403999999997</v>
-      </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="11"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="73" t="s">
+      <c r="J80" s="21">
+        <f t="shared" si="9"/>
+        <v>142.98782999999921</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="11"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="50" t="s">
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="51">
-        <f>C21</f>
+      <c r="C83" s="51">
+        <f>C22</f>
         <v>223.9</v>
       </c>
-      <c r="D79" s="27" t="str">
-        <f>D63</f>
+      <c r="D83" s="27" t="str">
+        <f>D67</f>
         <v>(17/09/15)</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="63" t="s">
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="64">
-        <f>C22</f>
+      <c r="C84" s="64">
+        <f>C23</f>
         <v>149</v>
       </c>
-      <c r="D80" s="62" t="str">
-        <f>D64</f>
+      <c r="D84" s="62" t="str">
+        <f>D68</f>
         <v>(18/08/15)</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="54" t="s">
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="55">
-        <f>C23</f>
+      <c r="C85" s="55">
+        <f>C24</f>
         <v>74.900000000000006</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D85" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="11"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="73" t="str">
-        <f>B25</f>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="79" t="str">
+        <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="67"/>
-      <c r="H83" s="68"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="67"/>
+      <c r="H87" s="68"/>
+    </row>
+    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="39">
-        <f>C26</f>
+      <c r="C88" s="39">
+        <f>C27</f>
         <v>262.99999999999852</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42">
-        <f>J76</f>
-        <v>43.765403999999997</v>
-      </c>
-      <c r="I84" s="35"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="45"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F85" s="33"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="45"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I86" s="43"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="45"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="str">
-        <f>B1</f>
-        <v>Suministro 1395500</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="45"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="str">
-        <f>B31</f>
-        <v>Consumo Energía SETIEMBRE 2015</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="48" t="str">
-        <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
-      </c>
-      <c r="K89" s="45"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="45"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="77"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="G91" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" s="45"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="9">
-        <f>C63</f>
-        <v>30363.5</v>
-      </c>
-      <c r="D92" s="10" t="str">
-        <f>D63</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="5" t="s">
+      <c r="E88" s="11"/>
+      <c r="F88" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="43">
+        <f>J80</f>
+        <v>142.98782999999921</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="92" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="74">
+        <v>42234</v>
+      </c>
+      <c r="D95">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="E95" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="74">
+        <v>42251</v>
+      </c>
+      <c r="D96">
+        <v>316.5</v>
+      </c>
+      <c r="E96" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="74">
+        <v>42259</v>
+      </c>
+      <c r="D97">
+        <v>338.5</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="74">
+        <v>42264</v>
+      </c>
+      <c r="D98">
+        <v>343.8</v>
+      </c>
+      <c r="E98" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="90">
+        <f>D96-D95</f>
+        <v>41.100000000000023</v>
+      </c>
+      <c r="E101" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="92"/>
+      <c r="H101" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="90"/>
+      <c r="D102" s="90">
+        <f>D97-D96</f>
+        <v>22</v>
+      </c>
+      <c r="E102" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="92"/>
+      <c r="H102" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="90">
+        <f>D98-D97</f>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="E103" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="92"/>
+      <c r="H103" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="J103" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="93">
         <v>7</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13">
-        <f>H34</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="14">
-        <f>(H92/4)</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K92" s="45"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="61">
-        <f>C64</f>
-        <v>29923.4</v>
-      </c>
-      <c r="D93" s="62" t="str">
-        <f>D64</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13">
-        <f>H35</f>
-        <v>1.2</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="14">
-        <f>(H93/4)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="18">
-        <f>C65</f>
-        <v>440.09999999999854</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="12">
-        <f>G7</f>
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H94" s="20">
-        <f>(C94*G94)</f>
-        <v>196.72469999999936</v>
-      </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="21">
-        <f>(C113*G94)</f>
-        <v>117.56099999999934</v>
-      </c>
-      <c r="K94" s="45"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13">
-        <f>H37</f>
-        <v>7.88</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="14">
-        <f>(H95/4)</f>
-        <v>1.97</v>
-      </c>
-      <c r="K95" s="45"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5" t="str">
-        <f>F9</f>
-        <v>Interés Compensatorio</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13">
-        <f>H9</f>
-        <v>0.08</v>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="14">
-        <f>J9</f>
-        <v>0.02</v>
-      </c>
-      <c r="K96" s="45"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="73" t="str">
-        <f>B10</f>
-        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
-      </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13">
-        <f>((SUM(H92:H95)-H96)*0.18)</f>
-        <v>37.475045999999878</v>
-      </c>
-      <c r="I97" s="13">
-        <f t="shared" ref="I97:J97" si="9">((SUM(I92:I95)-I96)*0.18)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="13">
-        <f t="shared" si="9"/>
-        <v>21.677129999999881</v>
-      </c>
-      <c r="K97" s="45"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="51">
-        <f>C11</f>
-        <v>242.2</v>
-      </c>
-      <c r="D98" s="27" t="str">
-        <f>D92</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="12">
-        <f>G11</f>
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="H98" s="13">
-        <f>H40</f>
-        <v>3.39</v>
-      </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="14">
-        <f>(H98/4)</f>
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="K98" s="45"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="64">
-        <f>C12</f>
-        <v>208.4</v>
-      </c>
-      <c r="D99" s="62" t="str">
-        <f>D93</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="55">
-        <f>C13</f>
-        <v>33.799999999999983</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13">
-        <f>SUM(H92:H96)+SUM(H97:H98)</f>
-        <v>249.21974599999925</v>
-      </c>
-      <c r="I100" s="13">
-        <f t="shared" ref="I100:J100" si="10">SUM(I92:I96)+SUM(I97:I98)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="13">
-        <f t="shared" si="10"/>
-        <v>142.99312999999921</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="73" t="str">
-        <f>B15</f>
-        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13">
-        <f>H44</f>
-        <v>0.03</v>
-      </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13">
-        <f>H102/4</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="51">
-        <f>C16</f>
-        <v>343.8</v>
-      </c>
-      <c r="D103" s="27" t="str">
-        <f>D98</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13">
-        <f>H45</f>
-        <v>0.08</v>
-      </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="30">
-        <f>H103/4</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="64">
-        <f>C17</f>
-        <v>275.39999999999998</v>
-      </c>
-      <c r="D104" s="62" t="str">
-        <f>D99</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="55">
-        <f>C18</f>
-        <v>68.400000000000034</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="34"/>
-      <c r="H105" s="35">
-        <f>(H100+H102-H103)</f>
-        <v>249.16974599999924</v>
-      </c>
-      <c r="I105" s="35">
-        <f t="shared" ref="I105:J105" si="11">(I100+I102-I103)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="35">
-        <f t="shared" si="11"/>
-        <v>142.98062999999919</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" s="79"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="51">
-        <f>C21</f>
-        <v>223.9</v>
-      </c>
-      <c r="D108" s="27" t="str">
-        <f>D92</f>
-        <v>(17/09/15)</v>
-      </c>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="64">
-        <f>C22</f>
-        <v>149</v>
-      </c>
-      <c r="D109" s="62" t="str">
-        <f>D93</f>
-        <v>(18/08/15)</v>
-      </c>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="55">
-        <f>C23</f>
-        <v>74.900000000000006</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="73" t="str">
-        <f>B54</f>
-        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="75"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="67"/>
-      <c r="H112" s="68"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="39">
-        <f>C26</f>
-        <v>262.99999999999852</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="43">
-        <f>J105</f>
-        <v>142.98062999999919</v>
-      </c>
-      <c r="I113" s="35"/>
-      <c r="J113" s="5"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="82">
-        <v>42234</v>
-      </c>
-      <c r="D120">
-        <v>275.39999999999998</v>
-      </c>
-      <c r="E120" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F120" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="82">
-        <v>42251</v>
-      </c>
-      <c r="D121">
-        <v>316.5</v>
-      </c>
-      <c r="E121" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="82">
-        <v>42259</v>
-      </c>
-      <c r="D122">
-        <v>338.5</v>
-      </c>
-      <c r="E122" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="82">
-        <v>42264</v>
-      </c>
-      <c r="D123">
-        <v>343.8</v>
-      </c>
-      <c r="E123" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F123" t="s">
-        <v>54</v>
+    </row>
+    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="93"/>
+    </row>
+    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="K105" s="93">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B33:D33"/>
+  <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -778,30 +778,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +811,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1179,11 +1179,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1304,11 +1304,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -1423,11 +1423,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -1529,11 +1529,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,11 +1582,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1697,11 +1697,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1830,12 +1830,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="79" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1951,12 +1951,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2063,11 +2063,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -2126,12 +2126,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="79" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2242,11 +2242,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2375,12 +2375,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="81"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2496,12 +2496,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="79" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="81"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2609,11 +2609,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="82"/>
-      <c r="D75" s="83"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="95"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -2672,12 +2672,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="79" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="81"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2782,11 +2782,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="78"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2910,12 +2910,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="79" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="81"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3023,12 +3023,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="79" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="81"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3126,11 +3126,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="82"/>
-      <c r="D103" s="83"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="95"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,12 +3179,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="79" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3217,6 +3217,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3232,11 +3237,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3308,11 +3308,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3433,11 +3433,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3552,11 +3552,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3658,11 +3658,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,11 +3711,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3827,11 +3827,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3960,12 +3960,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="79" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4081,12 +4081,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4194,11 +4194,11 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
       <c r="E47" s="11"/>
       <c r="K47" s="31"/>
       <c r="L47" s="45"/>
@@ -4259,12 +4259,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="79" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4376,11 +4376,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4509,12 +4509,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="81"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4630,12 +4630,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="79" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="81"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4743,11 +4743,11 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="82"/>
-      <c r="D75" s="83"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="95"/>
       <c r="E75" s="11"/>
       <c r="K75" s="28"/>
       <c r="L75" s="28"/>
@@ -4808,12 +4808,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="79" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="81"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4919,11 +4919,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="78"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5047,12 +5047,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="79" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="81"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5160,12 +5160,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="79" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="81"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5263,11 +5263,11 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="82"/>
-      <c r="D103" s="83"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="95"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -5318,12 +5318,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="79" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5356,6 +5356,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5368,14 +5376,6 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5385,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -5446,11 +5446,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5648,11 +5648,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5799,11 +5799,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5936,11 +5936,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5989,11 +5989,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6105,11 +6105,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6266,12 +6266,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="79" t="str">
+      <c r="B39" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6395,12 +6395,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="str">
+      <c r="B44" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6512,11 +6512,11 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="95"/>
       <c r="E49" s="11"/>
       <c r="K49" s="31"/>
       <c r="L49" s="45"/>
@@ -6577,12 +6577,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="str">
+      <c r="B54" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="81"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6694,11 +6694,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="78"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6849,12 +6849,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79" t="str">
+      <c r="B68" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="81"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6973,12 +6973,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="79" t="str">
+      <c r="B73" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="80"/>
-      <c r="D73" s="81"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7086,11 +7086,11 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="95"/>
       <c r="E78" s="11"/>
       <c r="K78" s="28"/>
       <c r="L78" s="28"/>
@@ -7151,12 +7151,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="79" t="str">
+      <c r="B83" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="81"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7262,11 +7262,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="77"/>
-      <c r="D91" s="78"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="93"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7411,12 +7411,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="79" t="str">
+      <c r="B97" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="80"/>
-      <c r="D97" s="81"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7527,12 +7527,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="79" t="str">
+      <c r="B102" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="80"/>
-      <c r="D102" s="81"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="90"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7630,11 +7630,11 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="83"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="95"/>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -7685,12 +7685,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="79" t="str">
+      <c r="B112" s="88" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="80"/>
-      <c r="D112" s="81"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="90"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7723,6 +7723,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7735,14 +7743,6 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7753,8 +7753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7773,31 +7773,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="87" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7814,11 +7814,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8016,11 +8016,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8167,11 +8167,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8304,11 +8304,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8357,11 +8357,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8425,34 +8425,34 @@
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="86" t="str">
+      <c r="B31" s="78" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="88"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="45"/>
       <c r="L31" s="47"/>
     </row>
     <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="86" t="str">
+      <c r="B32" s="78" t="str">
         <f>B3</f>
         <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="89" t="str">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="81" t="str">
         <f>J3</f>
         <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
@@ -8473,11 +8473,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8514,11 +8514,11 @@
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13">
-        <f>H6</f>
+        <f t="shared" ref="H35:H41" si="3">H6</f>
         <v>2.4700000000000002</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" ref="I35:J37" si="3">I6</f>
+        <f t="shared" ref="I35" si="4">I6</f>
         <v>0</v>
       </c>
       <c r="J35" s="13">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
-        <f>H7</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="I36" s="13"/>
@@ -8579,12 +8579,12 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="H37" s="20">
-        <f>H8</f>
+        <f t="shared" si="3"/>
         <v>196.72469999999936</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20">
-        <f t="shared" ref="J37:J48" si="4">K8</f>
+        <f t="shared" ref="J37:J48" si="5">K8</f>
         <v>30.574800000000018</v>
       </c>
       <c r="K37" s="22"/>
@@ -8601,12 +8601,12 @@
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13">
-        <f>H9</f>
+        <f t="shared" si="3"/>
         <v>7.88</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.97</v>
       </c>
       <c r="K38" s="15"/>
@@ -8624,12 +8624,12 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
-        <f>H10</f>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="K39" s="15"/>
@@ -8637,27 +8637,27 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13">
-        <f>H11</f>
+        <f t="shared" si="3"/>
         <v>37.503845999999882</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <f t="shared" ref="I40" si="6">((SUM(I35:I38)-I39)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0268140000000043</v>
       </c>
       <c r="K40" s="24"/>
@@ -8685,12 +8685,12 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H41" s="13">
-        <f>H12</f>
+        <f t="shared" si="3"/>
         <v>3.39</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84750000000000003</v>
       </c>
       <c r="K41" s="15"/>
@@ -8740,11 +8740,11 @@
         <v>249.24854599999924</v>
       </c>
       <c r="I43" s="13">
-        <f t="shared" ref="I43:J43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
+        <f t="shared" ref="I43" si="7">SUM(I35:I39)+SUM(I40:I41)</f>
         <v>0</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.356614000000029</v>
       </c>
       <c r="K43" s="24"/>
@@ -8766,12 +8766,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="79" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="K45" s="24"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="K46" s="70"/>
@@ -8863,11 +8863,11 @@
         <v>249.19854599999923</v>
       </c>
       <c r="I48" s="35">
-        <f t="shared" ref="I48:J48" si="7">(I43+I45-I46)</f>
+        <f t="shared" ref="I48" si="8">(I43+I45-I46)</f>
         <v>0</v>
       </c>
       <c r="J48" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.344114000000026</v>
       </c>
       <c r="K48" s="36"/>
@@ -8883,11 +8883,11 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="11"/>
       <c r="K50" s="31"/>
       <c r="L50" s="45"/>
@@ -8948,12 +8948,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="79" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -8983,7 +8983,7 @@
         <f>J48</f>
         <v>40.344114000000026</v>
       </c>
-      <c r="I56" s="95" t="s">
+      <c r="I56" s="87" t="s">
         <v>64</v>
       </c>
       <c r="J56" s="5"/>
@@ -9044,33 +9044,33 @@
       <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="86" t="str">
+      <c r="B63" s="78" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
       <c r="K63" s="45"/>
     </row>
     <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="86" t="str">
+      <c r="B64" s="78" t="str">
         <f>B32</f>
         <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="89" t="str">
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="81" t="str">
         <f>J3</f>
         <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
@@ -9089,11 +9089,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9186,12 +9186,12 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="H69" s="20">
-        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <f t="shared" ref="H69:H80" si="9">H8</f>
         <v>196.72469999999936</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="21">
-        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <f t="shared" ref="J69:J80" si="10">M8</f>
         <v>117.56099999999934</v>
       </c>
       <c r="K69" s="45"/>
@@ -9206,12 +9206,12 @@
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.88</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.97</v>
       </c>
       <c r="K70" s="45"/>
@@ -9227,38 +9227,38 @@
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.08</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="79" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.503845999999882</v>
       </c>
       <c r="I72" s="13">
-        <f t="shared" ref="I72:J72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
+        <f t="shared" ref="I72" si="11">((SUM(I67:I70)-I71)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.684329999999878</v>
       </c>
       <c r="K72" s="45"/>
@@ -9284,12 +9284,12 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H73" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.39</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84750000000000003</v>
       </c>
       <c r="K73" s="45"/>
@@ -9330,15 +9330,15 @@
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249.24854599999924</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" ref="I75:J75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <f t="shared" ref="I75" si="12">SUM(I67:I71)+SUM(I72:I73)</f>
         <v>0</v>
       </c>
       <c r="J75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>143.00032999999922</v>
       </c>
     </row>
@@ -9354,24 +9354,24 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="79" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="80"/>
-      <c r="D77" s="81"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
@@ -9393,12 +9393,12 @@
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.08</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -9438,15 +9438,15 @@
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>249.19854599999923</v>
       </c>
       <c r="I80" s="35">
-        <f t="shared" ref="I80:J80" si="12">(I75+I77-I78)</f>
+        <f t="shared" ref="I80" si="13">(I75+I77-I78)</f>
         <v>0</v>
       </c>
       <c r="J80" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>142.98782999999921</v>
       </c>
     </row>
@@ -9457,11 +9457,11 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="95"/>
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,12 +9512,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="79" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="92" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="86" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9612,103 +9612,103 @@
       </c>
     </row>
     <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="90" t="s">
+      <c r="C101" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="90">
+      <c r="D101" s="82">
         <f>D96-D95</f>
         <v>41.100000000000023</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E101" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="90" t="s">
+      <c r="F101" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G101" s="92"/>
-      <c r="H101" s="90" t="s">
+      <c r="G101" s="84"/>
+      <c r="H101" s="82" t="s">
         <v>60</v>
       </c>
       <c r="J101" t="s">
         <v>65</v>
       </c>
-      <c r="K101" s="93">
+      <c r="K101" s="85">
         <v>17</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="90"/>
-      <c r="D102" s="90">
+      <c r="B102" s="82"/>
+      <c r="D102" s="82">
         <f>D97-D96</f>
         <v>22</v>
       </c>
-      <c r="E102" s="91" t="s">
+      <c r="E102" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F102" s="90" t="s">
+      <c r="F102" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G102" s="92"/>
-      <c r="H102" s="90" t="s">
+      <c r="G102" s="84"/>
+      <c r="H102" s="82" t="s">
         <v>61</v>
       </c>
       <c r="J102" t="s">
         <v>65</v>
       </c>
-      <c r="K102" s="93">
+      <c r="K102" s="85">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="90">
+      <c r="D103" s="82">
         <f>D98-D97</f>
         <v>5.3000000000000114</v>
       </c>
-      <c r="E103" s="91" t="s">
+      <c r="E103" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="90" t="s">
+      <c r="F103" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="92"/>
-      <c r="H103" s="90" t="s">
+      <c r="G103" s="84"/>
+      <c r="H103" s="82" t="s">
         <v>62</v>
       </c>
       <c r="J103" t="s">
         <v>65</v>
       </c>
-      <c r="K103" s="93">
+      <c r="K103" s="85">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K104" s="93"/>
+      <c r="K104" s="85"/>
     </row>
     <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J105" s="90" t="s">
+      <c r="J105" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="K105" s="93">
+      <c r="K105" s="85">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
     <sheet name="JUL 2015" sheetId="2" r:id="rId2"/>
     <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
     <sheet name="SET 2015" sheetId="4" r:id="rId4"/>
+    <sheet name="OCT 2015" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="67">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -812,6 +818,15 @@
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,15 +834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1179,11 +1185,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1304,7 +1310,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="94"/>
@@ -1423,7 +1429,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="94"/>
@@ -1529,7 +1535,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="94"/>
@@ -1582,11 +1588,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1697,11 +1703,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1830,12 +1836,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1951,12 +1957,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2063,7 +2069,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -2126,12 +2132,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2242,11 +2248,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2375,12 +2381,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2496,12 +2502,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2609,7 +2615,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -2672,12 +2678,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2782,11 +2788,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2910,12 +2916,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3023,12 +3029,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3126,7 +3132,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -3179,12 +3185,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3217,11 +3223,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3237,6 +3238,11 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3247,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -3308,11 +3314,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3433,11 +3439,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3552,11 +3558,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3658,11 +3664,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,11 +3717,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3827,11 +3833,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3960,12 +3966,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4081,12 +4087,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4194,7 +4200,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -4259,12 +4265,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4376,11 +4382,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4509,12 +4515,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4630,12 +4636,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4743,7 +4749,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -4808,12 +4814,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4919,11 +4925,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5047,12 +5053,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5160,12 +5166,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5263,7 +5269,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -5318,12 +5324,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5356,14 +5362,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5376,6 +5374,14 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5385,7 +5391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M113"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -5446,11 +5452,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5648,11 +5654,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5799,11 +5805,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5936,11 +5942,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5989,11 +5995,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6105,11 +6111,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6266,12 +6272,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="88" t="str">
+      <c r="B39" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6395,12 +6401,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="str">
+      <c r="B44" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6512,7 +6518,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="94"/>
@@ -6577,12 +6583,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88" t="str">
+      <c r="B54" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6694,11 +6700,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6849,12 +6855,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88" t="str">
+      <c r="B68" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6973,12 +6979,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="88" t="str">
+      <c r="B73" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7086,7 +7092,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="94"/>
@@ -7151,12 +7157,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="88" t="str">
+      <c r="B83" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7262,11 +7268,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7411,12 +7417,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="88" t="str">
+      <c r="B97" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="89"/>
-      <c r="D97" s="90"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7527,12 +7533,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="88" t="str">
+      <c r="B102" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="90"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7630,7 +7636,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="94"/>
@@ -7685,12 +7691,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="88" t="str">
+      <c r="B112" s="91" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="89"/>
-      <c r="D112" s="90"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7723,14 +7729,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7743,6 +7741,14 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7753,8 +7759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7814,11 +7820,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8016,11 +8022,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8167,11 +8173,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8304,11 +8310,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8357,11 +8363,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8473,11 +8479,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8637,12 +8643,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -8766,12 +8772,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8883,7 +8889,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -8948,12 +8954,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -9089,11 +9095,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9238,12 +9244,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -9354,12 +9360,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -9457,7 +9463,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -9512,12 +9518,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9694,23 +9700,1986 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B34:D34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="53">
+        <v>30363.5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="53">
+        <v>30363.5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(H7/4)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55">
+        <f>(C6-C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <f>(C8*G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21">
+        <f>(C14*G8)</f>
+        <v>32.049899999999994</v>
+      </c>
+      <c r="K8" s="21">
+        <f>(C19*G8)</f>
+        <v>16.851899999999997</v>
+      </c>
+      <c r="L8" s="21">
+        <f>(C24*G8)</f>
+        <v>26.819999999999986</v>
+      </c>
+      <c r="M8" s="21">
+        <f>(C27*G8)</f>
+        <v>-75.721799999999973</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>7.88</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="L9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="M9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="14">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f>((SUM(H6:H9)+H10)*0.18)</f>
+        <v>2.0933999999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f>((SUM(J6:J9)+J10)*0.18)</f>
+        <v>6.2923319999999983</v>
+      </c>
+      <c r="K11" s="13">
+        <f>((SUM(K6:K9)+K10)*0.18)</f>
+        <v>3.5566919999999991</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>5.3509499999999974</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>-13.106573999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3.39</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
+        <f>(H12/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(H12/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="L12" s="14">
+        <f>(H12/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="M12" s="14">
+        <f>(H12/4)</f>
+        <v>0.84750000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="53">
+        <v>242.2</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>D7</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55">
+        <f>(C12-C13)</f>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <f>SUM(H6:H10)+SUM(H11:H12)</f>
+        <v>17.113399999999999</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>42.097231999999991</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>24.163591999999994</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
+        <v>35.925949999999986</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="1"/>
+        <v>-85.073373999999973</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <f>H16/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="53">
+        <v>381.5</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="30">
+        <f>(H17/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="30">
+        <f>(H17/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L17" s="30">
+        <f>(H17/4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="M17" s="30">
+        <f>(H17/4)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="53">
+        <v>343.8</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>D7</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="55">
+        <f>(C17-C18)</f>
+        <v>37.699999999999989</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35">
+        <f>(H14+H16-H17)</f>
+        <v>17.063400000000001</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="2"/>
+        <v>42.084731999999988</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="2"/>
+        <v>24.151091999999995</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="2"/>
+        <v>35.913449999999983</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="2"/>
+        <v>-85.085873999999976</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="53">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="53">
+        <v>223.9</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>D7</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="55">
+        <f>C22-C23</f>
+        <v>59.999999999999972</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="39">
+        <f>(C8-SUM(C14,C19,C24))</f>
+        <v>-169.39999999999995</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42">
+        <f>J19</f>
+        <v>42.084731999999988</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="33"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="33"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+    </row>
+    <row r="30" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="78" t="str">
+        <f>B3</f>
+        <v>Consumo Energía SETIEMBRE 2015</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="81" t="str">
+        <f>J3</f>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <f>C6</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f t="shared" ref="H35:I41" si="3">H6</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <f>K6</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="61">
+        <f>C7</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D36" s="62" t="str">
+        <f>D7</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <f>K7</f>
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <f>G8</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f t="shared" ref="J37:J48" si="4">K8</f>
+        <v>16.851899999999997</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
+        <f t="shared" si="3"/>
+        <v>7.88</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
+        <v>1.97</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0933999999999999</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>3.5566919999999991</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="51">
+        <f>C12</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>D35</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="3"/>
+        <v>3.39</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="64">
+        <f>C13</f>
+        <v>242.2</v>
+      </c>
+      <c r="D42" s="62" t="str">
+        <f>D36</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="55">
+        <f>C14</f>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13">
+        <f>H14</f>
+        <v>17.113399999999999</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>24.163591999999994</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="91" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>H16</f>
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="51">
+        <f>C17</f>
+        <v>381.5</v>
+      </c>
+      <c r="D46" s="27" t="str">
+        <f>D41</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f>H17</f>
+        <v>0.08</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="64">
+        <f>C18</f>
+        <v>343.8</v>
+      </c>
+      <c r="D47" s="62" t="str">
+        <f>D42</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="55">
+        <f>C19</f>
+        <v>37.699999999999989</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35">
+        <f>(H43+H45-H46)</f>
+        <v>17.063400000000001</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" si="4"/>
+        <v>24.151091999999995</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="11"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="51">
+        <f>C22</f>
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D51" s="27" t="str">
+        <f>D35</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="64">
+        <f>C23</f>
+        <v>223.9</v>
+      </c>
+      <c r="D52" s="62" t="str">
+        <f>D36</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="55">
+        <f>C24</f>
+        <v>59.999999999999972</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="91" t="str">
+        <f>B26</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="39">
+        <f>C27</f>
+        <v>-169.39999999999995</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42">
+        <f>J48</f>
+        <v>24.151091999999995</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F58" s="33"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F60" s="33"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="78" t="str">
+        <f>B32</f>
+        <v>Consumo Energía SETIEMBRE 2015</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="81" t="str">
+        <f>J3</f>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+      </c>
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9">
+        <f>C6</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D67" s="10" t="str">
+        <f>D6</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f>H6</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <f>M6</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="61">
+        <f>C7</f>
+        <v>30363.5</v>
+      </c>
+      <c r="D68" s="62" t="str">
+        <f>D7</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f>H7</f>
+        <v>1.2</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14">
+        <f>M7</f>
+        <v>0.3</v>
+      </c>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="18">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="73">
+        <f>G8</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21">
+        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <v>-75.721799999999973</v>
+      </c>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13">
+        <f t="shared" si="8"/>
+        <v>7.88</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14">
+        <f t="shared" si="9"/>
+        <v>1.97</v>
+      </c>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="91" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13">
+        <f t="shared" si="8"/>
+        <v>2.0933999999999999</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="9"/>
+        <v>-13.106573999999995</v>
+      </c>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="51">
+        <f>C12</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D73" s="27" t="str">
+        <f>D67</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" si="8"/>
+        <v>3.39</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14">
+        <f t="shared" si="9"/>
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="64">
+        <f>C13</f>
+        <v>242.2</v>
+      </c>
+      <c r="D74" s="62" t="str">
+        <f>D68</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="55">
+        <f>C14</f>
+        <v>71.699999999999989</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13">
+        <f t="shared" si="8"/>
+        <v>17.113399999999999</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="9"/>
+        <v>-85.073373999999973</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="91" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="51">
+        <f>C17</f>
+        <v>381.5</v>
+      </c>
+      <c r="D78" s="27" t="str">
+        <f>D73</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="64">
+        <f>C18</f>
+        <v>343.8</v>
+      </c>
+      <c r="D79" s="62" t="str">
+        <f>D74</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="55">
+        <f>C19</f>
+        <v>37.699999999999989</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="20">
+        <f t="shared" si="8"/>
+        <v>17.063400000000001</v>
+      </c>
+      <c r="I80" s="35">
+        <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="21">
+        <f t="shared" si="9"/>
+        <v>-85.085873999999976</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="94"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="51">
+        <f>C22</f>
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D83" s="27" t="str">
+        <f>D67</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="64">
+        <f>C23</f>
+        <v>223.9</v>
+      </c>
+      <c r="D84" s="62" t="str">
+        <f>D68</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="55">
+        <f>C24</f>
+        <v>59.999999999999972</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="91" t="str">
+        <f>B55</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="67"/>
+      <c r="H87" s="68"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="39">
+        <f>C27</f>
+        <v>-169.39999999999995</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="43">
+        <f>J80</f>
+        <v>-85.085873999999976</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="74">
+        <v>42234</v>
+      </c>
+      <c r="D95">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="E95" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="74">
+        <v>42251</v>
+      </c>
+      <c r="D96">
+        <v>316.5</v>
+      </c>
+      <c r="E96" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="74">
+        <v>42259</v>
+      </c>
+      <c r="D97">
+        <v>338.5</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="74">
+        <v>42264</v>
+      </c>
+      <c r="D98">
+        <v>343.8</v>
+      </c>
+      <c r="E98" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="82">
+        <f>D96-D95</f>
+        <v>41.100000000000023</v>
+      </c>
+      <c r="E101" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G101" s="84"/>
+      <c r="H101" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="82"/>
+      <c r="D102" s="82">
+        <f>D97-D96</f>
+        <v>22</v>
+      </c>
+      <c r="E102" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="84"/>
+      <c r="H102" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D103" s="82">
+        <f>D98-D97</f>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="E103" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="G103" s="84"/>
+      <c r="H103" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="J103" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="85"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="K105" s="85">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="70">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Consumo Energía OCTUBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-NOV-2015</t>
+  </si>
+  <si>
+    <t>(19/10/15)</t>
   </si>
 </sst>
 </file>
@@ -818,6 +827,15 @@
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,15 +843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1185,11 +1194,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1310,7 +1319,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="94"/>
@@ -1429,7 +1438,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="94"/>
@@ -1535,7 +1544,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="94"/>
@@ -1588,11 +1597,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1703,11 +1712,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1836,12 +1845,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="91" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1957,12 +1966,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="91" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2069,7 +2078,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -2132,12 +2141,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="91" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2248,11 +2257,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2381,12 +2390,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="91" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2502,12 +2511,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="91" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2615,7 +2624,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -2678,12 +2687,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="91" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2788,11 +2797,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2916,12 +2925,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="91" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3029,12 +3038,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="91" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3132,7 +3141,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -3185,12 +3194,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="91" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3223,6 +3232,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3238,11 +3252,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3253,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -3314,11 +3323,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3439,11 +3448,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3558,11 +3567,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3664,11 +3673,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,11 +3726,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3833,11 +3842,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3966,12 +3975,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="91" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4087,12 +4096,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="91" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4200,7 +4209,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -4265,12 +4274,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="91" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4382,11 +4391,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4515,12 +4524,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="91" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4636,12 +4645,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="91" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4749,7 +4758,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -4814,12 +4823,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="91" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4925,11 +4934,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5053,12 +5062,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="91" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5166,12 +5175,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="91" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5269,7 +5278,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -5324,12 +5333,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="91" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5362,6 +5371,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5374,14 +5391,6 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5391,7 +5400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -5452,11 +5461,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5654,11 +5663,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5805,11 +5814,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5942,11 +5951,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,11 +6004,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6111,11 +6120,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6272,12 +6281,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="str">
+      <c r="B39" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6401,12 +6410,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="91" t="str">
+      <c r="B44" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6518,7 +6527,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="94"/>
@@ -6583,12 +6592,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="91" t="str">
+      <c r="B54" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6700,11 +6709,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6855,12 +6864,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="91" t="str">
+      <c r="B68" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6979,12 +6988,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="91" t="str">
+      <c r="B73" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="93"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7092,7 +7101,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="94"/>
@@ -7157,12 +7166,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="91" t="str">
+      <c r="B83" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="93"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7268,11 +7277,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="88" t="s">
+      <c r="B91" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="93"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7417,12 +7426,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="91" t="str">
+      <c r="B97" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7533,12 +7542,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="91" t="str">
+      <c r="B102" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="93"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="90"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7636,7 +7645,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="94"/>
@@ -7691,12 +7700,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="91" t="str">
+      <c r="B112" s="88" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="93"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="90"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7729,6 +7738,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7741,14 +7758,6 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7820,11 +7829,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8022,11 +8031,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8173,11 +8182,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8310,11 +8319,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8363,11 +8372,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8479,11 +8488,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8643,12 +8652,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -8772,12 +8781,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8889,7 +8898,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -8954,12 +8963,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -9095,11 +9104,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9244,12 +9253,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -9360,12 +9369,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="91" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -9463,7 +9472,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -9518,12 +9527,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="91" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9700,21 +9709,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9726,7 +9735,7 @@
   <dimension ref="B2:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9760,7 +9769,7 @@
     </row>
     <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
@@ -9770,7 +9779,7 @@
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="J3" s="79" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -9786,11 +9795,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -9820,10 +9829,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="53">
-        <v>30363.5</v>
+        <v>30826.5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="5" t="s">
@@ -9867,24 +9876,24 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="14">
         <f>(H7/4)</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K7" s="14">
         <f>(H7/4)</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L7" s="14">
         <f>(H7/4)</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="M7" s="14">
         <f>(H7/4)</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -9893,7 +9902,7 @@
       </c>
       <c r="C8" s="55">
         <f>(C6-C7)</f>
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>11</v>
@@ -9903,28 +9912,28 @@
         <v>12</v>
       </c>
       <c r="G8" s="73">
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H8" s="20">
         <f>(C8*G8)</f>
-        <v>0</v>
+        <v>208.02589999999998</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21">
         <f>(C14*G8)</f>
-        <v>32.049899999999994</v>
+        <v>32.214809999999993</v>
       </c>
       <c r="K8" s="21">
         <f>(C19*G8)</f>
-        <v>16.851899999999997</v>
+        <v>16.938609999999994</v>
       </c>
       <c r="L8" s="21">
         <f>(C24*G8)</f>
-        <v>26.819999999999986</v>
+        <v>26.957999999999984</v>
       </c>
       <c r="M8" s="21">
         <f>(C27*G8)</f>
-        <v>-75.721799999999973</v>
+        <v>131.91448</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -9967,32 +9976,32 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -10000,7 +10009,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13">
         <f>((SUM(H6:H9)+H10)*0.18)</f>
-        <v>2.0933999999999999</v>
+        <v>39.548861999999993</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
@@ -10008,19 +10017,19 @@
       </c>
       <c r="J11" s="13">
         <f>((SUM(J6:J9)+J10)*0.18)</f>
-        <v>6.2923319999999983</v>
+        <v>6.3247157999999981</v>
       </c>
       <c r="K11" s="13">
         <f>((SUM(K6:K9)+K10)*0.18)</f>
-        <v>3.5566919999999991</v>
+        <v>3.5749997999999987</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>5.3509499999999974</v>
+        <v>5.3784899999999967</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>-13.106573999999995</v>
+        <v>24.270656399999996</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10041,7 @@
       </c>
       <c r="D12" s="10" t="str">
         <f>D6</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -10042,24 +10051,24 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H12" s="13">
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14">
         <f>(H12/4)</f>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K12" s="14">
         <f>(H12/4)</f>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="L12" s="14">
         <f>(H12/4)</f>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="M12" s="14">
         <f>(H12/4)</f>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10101,7 +10110,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="13">
         <f>SUM(H6:H10)+SUM(H11:H12)</f>
-        <v>17.113399999999999</v>
+        <v>262.83476199999996</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
@@ -10109,19 +10118,19 @@
       </c>
       <c r="J14" s="13">
         <f t="shared" si="1"/>
-        <v>42.097231999999991</v>
+        <v>42.35452579999999</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="1"/>
-        <v>24.163591999999994</v>
+        <v>24.328609799999992</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="1"/>
-        <v>35.925949999999986</v>
+        <v>36.151489999999981</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="1"/>
-        <v>-85.073373999999973</v>
+        <v>160.00013639999997</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10139,35 +10148,35 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13">
         <f>H16/4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="K16" s="13">
         <f>H16/4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="L16" s="13">
         <f>H16/4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="M16" s="13">
         <f>H16/4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10179,7 +10188,7 @@
       </c>
       <c r="D17" s="10" t="str">
         <f>D6</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -10187,24 +10196,24 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="30">
         <f>(H17/4)</f>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K17" s="30">
         <f>(H17/4)</f>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L17" s="30">
         <f>(H17/4)</f>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M17" s="30">
         <f>(H17/4)</f>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10246,7 +10255,7 @@
       <c r="G19" s="34"/>
       <c r="H19" s="35">
         <f>(H14+H16-H17)</f>
-        <v>17.063400000000001</v>
+        <v>262.90476199999995</v>
       </c>
       <c r="I19" s="35">
         <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
@@ -10254,19 +10263,19 @@
       </c>
       <c r="J19" s="35">
         <f t="shared" si="2"/>
-        <v>42.084731999999988</v>
+        <v>42.372025799999989</v>
       </c>
       <c r="K19" s="35">
         <f t="shared" si="2"/>
-        <v>24.151091999999995</v>
+        <v>24.346109799999994</v>
       </c>
       <c r="L19" s="35">
         <f t="shared" si="2"/>
-        <v>35.913449999999983</v>
+        <v>36.16898999999998</v>
       </c>
       <c r="M19" s="35">
         <f t="shared" si="2"/>
-        <v>-85.085873999999976</v>
+        <v>160.01763639999999</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10276,11 +10285,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10292,7 +10301,7 @@
       </c>
       <c r="D22" s="10" t="str">
         <f>D6</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -10329,11 +10338,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -10347,7 +10356,7 @@
       </c>
       <c r="C27" s="39">
         <f>(C8-SUM(C14,C19,C24))</f>
-        <v>-169.39999999999995</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>11</v>
@@ -10359,7 +10368,7 @@
       <c r="G27" s="41"/>
       <c r="H27" s="42">
         <f>J19</f>
-        <v>42.084731999999988</v>
+        <v>42.372025799999989</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="5"/>
@@ -10415,7 +10424,7 @@
     <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="78" t="str">
         <f>B3</f>
-        <v>Consumo Energía SETIEMBRE 2015</v>
+        <v>Consumo Energía OCTUBRE 2015</v>
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
@@ -10426,7 +10435,7 @@
       <c r="I32" s="76"/>
       <c r="J32" s="81" t="str">
         <f>J3</f>
-        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2015</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="45"/>
@@ -10445,11 +10454,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -10474,11 +10483,11 @@
       </c>
       <c r="C35" s="9">
         <f>C6</f>
-        <v>30363.5</v>
+        <v>30826.5</v>
       </c>
       <c r="D35" s="10" t="str">
         <f>D6</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5" t="s">
@@ -10520,12 +10529,12 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13">
         <f>K7</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -10537,7 +10546,7 @@
       </c>
       <c r="C37" s="18">
         <f>C8</f>
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>11</v>
@@ -10548,16 +10557,16 @@
       </c>
       <c r="G37" s="12">
         <f>G8</f>
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>208.02589999999998</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20">
         <f t="shared" ref="J37:J48" si="4">K8</f>
-        <v>16.851899999999997</v>
+        <v>16.938609999999994</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -10597,24 +10606,24 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13">
         <f t="shared" si="4"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -10622,7 +10631,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13">
         <f t="shared" si="3"/>
-        <v>2.0933999999999999</v>
+        <v>39.548861999999993</v>
       </c>
       <c r="I40" s="13">
         <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
@@ -10630,7 +10639,7 @@
       </c>
       <c r="J40" s="13">
         <f t="shared" si="4"/>
-        <v>3.5566919999999991</v>
+        <v>3.5749997999999987</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10646,7 +10655,7 @@
       </c>
       <c r="D41" s="27" t="str">
         <f>D35</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
@@ -10658,12 +10667,12 @@
       </c>
       <c r="H41" s="13">
         <f t="shared" si="3"/>
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13">
         <f t="shared" si="4"/>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -10709,7 +10718,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13">
         <f>H14</f>
-        <v>17.113399999999999</v>
+        <v>262.83476199999996</v>
       </c>
       <c r="I43" s="13">
         <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
@@ -10717,7 +10726,7 @@
       </c>
       <c r="J43" s="13">
         <f t="shared" si="4"/>
-        <v>24.163591999999994</v>
+        <v>24.328609799999992</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
@@ -10738,12 +10747,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -10751,12 +10760,12 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13">
         <f>H16</f>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13">
         <f t="shared" si="4"/>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -10772,7 +10781,7 @@
       </c>
       <c r="D46" s="27" t="str">
         <f>D41</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
@@ -10781,12 +10790,12 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13">
         <f>H17</f>
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13">
         <f t="shared" si="4"/>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
@@ -10832,7 +10841,7 @@
       <c r="G48" s="34"/>
       <c r="H48" s="35">
         <f>(H43+H45-H46)</f>
-        <v>17.063400000000001</v>
+        <v>262.90476199999995</v>
       </c>
       <c r="I48" s="35">
         <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
@@ -10840,7 +10849,7 @@
       </c>
       <c r="J48" s="20">
         <f t="shared" si="4"/>
-        <v>24.151091999999995</v>
+        <v>24.346109799999994</v>
       </c>
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
@@ -10855,7 +10864,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -10874,7 +10883,7 @@
       </c>
       <c r="D51" s="27" t="str">
         <f>D35</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E51" s="11"/>
       <c r="K51" s="31"/>
@@ -10920,12 +10929,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -10941,7 +10950,7 @@
       </c>
       <c r="C56" s="39">
         <f>C27</f>
-        <v>-169.39999999999995</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>11</v>
@@ -10953,7 +10962,7 @@
       <c r="G56" s="41"/>
       <c r="H56" s="42">
         <f>J48</f>
-        <v>24.151091999999995</v>
+        <v>24.346109799999994</v>
       </c>
       <c r="I56" s="87" t="s">
         <v>64</v>
@@ -11033,7 +11042,7 @@
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="78" t="str">
         <f>B32</f>
-        <v>Consumo Energía SETIEMBRE 2015</v>
+        <v>Consumo Energía OCTUBRE 2015</v>
       </c>
       <c r="C64" s="76"/>
       <c r="D64" s="76"/>
@@ -11044,7 +11053,7 @@
       <c r="I64" s="76"/>
       <c r="J64" s="81" t="str">
         <f>J3</f>
-        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2015</v>
       </c>
       <c r="K64" s="45"/>
     </row>
@@ -11061,11 +11070,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -11088,11 +11097,11 @@
       </c>
       <c r="C67" s="9">
         <f>C6</f>
-        <v>30363.5</v>
+        <v>30826.5</v>
       </c>
       <c r="D67" s="10" t="str">
         <f>D6</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="5" t="s">
@@ -11129,12 +11138,12 @@
       <c r="G68" s="12"/>
       <c r="H68" s="13">
         <f>H7</f>
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="14">
         <f>M7</f>
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K68" s="45"/>
     </row>
@@ -11144,7 +11153,7 @@
       </c>
       <c r="C69" s="18">
         <f>C8</f>
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>11</v>
@@ -11155,16 +11164,16 @@
       </c>
       <c r="G69" s="73">
         <f>G8</f>
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H69" s="20">
         <f t="shared" ref="H69:H80" si="8">H8</f>
-        <v>0</v>
+        <v>208.02589999999998</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="21">
         <f t="shared" ref="J69:J80" si="9">M8</f>
-        <v>-75.721799999999973</v>
+        <v>131.91448</v>
       </c>
       <c r="K69" s="45"/>
     </row>
@@ -11200,22 +11209,22 @@
       <c r="G71" s="12"/>
       <c r="H71" s="13">
         <f t="shared" si="8"/>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14">
         <f t="shared" si="9"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -11223,7 +11232,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="13">
         <f t="shared" si="8"/>
-        <v>2.0933999999999999</v>
+        <v>39.548861999999993</v>
       </c>
       <c r="I72" s="13">
         <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
@@ -11231,7 +11240,7 @@
       </c>
       <c r="J72" s="14">
         <f t="shared" si="9"/>
-        <v>-13.106573999999995</v>
+        <v>24.270656399999996</v>
       </c>
       <c r="K72" s="45"/>
     </row>
@@ -11245,7 +11254,7 @@
       </c>
       <c r="D73" s="27" t="str">
         <f>D67</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
@@ -11257,12 +11266,12 @@
       </c>
       <c r="H73" s="13">
         <f t="shared" si="8"/>
-        <v>3.39</v>
+        <v>3.57</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="14">
         <f t="shared" si="9"/>
-        <v>0.84750000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K73" s="45"/>
     </row>
@@ -11303,7 +11312,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="13">
         <f t="shared" si="8"/>
-        <v>17.113399999999999</v>
+        <v>262.83476199999996</v>
       </c>
       <c r="I75" s="13">
         <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
@@ -11311,7 +11320,7 @@
       </c>
       <c r="J75" s="14">
         <f t="shared" si="9"/>
-        <v>-85.073373999999973</v>
+        <v>160.00013639999997</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -11326,12 +11335,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="91" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -11339,12 +11348,12 @@
       <c r="G77" s="12"/>
       <c r="H77" s="13">
         <f t="shared" si="8"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="14">
         <f t="shared" si="9"/>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -11357,7 +11366,7 @@
       </c>
       <c r="D78" s="27" t="str">
         <f>D73</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
@@ -11366,12 +11375,12 @@
       <c r="G78" s="12"/>
       <c r="H78" s="13">
         <f t="shared" si="8"/>
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="14">
         <f t="shared" si="9"/>
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -11411,7 +11420,7 @@
       <c r="G80" s="34"/>
       <c r="H80" s="20">
         <f t="shared" si="8"/>
-        <v>17.063400000000001</v>
+        <v>262.90476199999995</v>
       </c>
       <c r="I80" s="35">
         <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
@@ -11419,7 +11428,7 @@
       </c>
       <c r="J80" s="21">
         <f t="shared" si="9"/>
-        <v>-85.085873999999976</v>
+        <v>160.01763639999999</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -11429,7 +11438,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -11446,7 +11455,7 @@
       </c>
       <c r="D83" s="27" t="str">
         <f>D67</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E83" s="11"/>
     </row>
@@ -11484,12 +11493,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="91" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -11503,7 +11512,7 @@
       </c>
       <c r="C88" s="39">
         <f>C27</f>
-        <v>-169.39999999999995</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>11</v>
@@ -11515,7 +11524,7 @@
       <c r="G88" s="41"/>
       <c r="H88" s="43">
         <f>J80</f>
-        <v>-85.085873999999976</v>
+        <v>160.01763639999999</v>
       </c>
       <c r="I88" s="35"/>
       <c r="J88" s="5"/>
@@ -11664,6 +11673,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -11673,12 +11688,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="71">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>(19/10/15)</t>
+  </si>
+  <si>
+    <t>MEDIDOR 2 - M2 (Srta. Maria Jesus)</t>
   </si>
 </sst>
 </file>
@@ -827,6 +830,15 @@
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,15 +846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,11 +1197,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1319,7 +1322,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="94"/>
@@ -1438,7 +1441,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="94"/>
@@ -1544,7 +1547,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="94"/>
@@ -1597,11 +1600,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1712,11 +1715,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1845,12 +1848,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1966,12 +1969,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2078,7 +2081,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -2141,12 +2144,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2257,11 +2260,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2390,12 +2393,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2511,12 +2514,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2624,7 +2627,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -2687,12 +2690,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2797,11 +2800,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2925,12 +2928,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3038,12 +3041,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3141,7 +3144,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -3194,12 +3197,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3232,11 +3235,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3252,6 +3250,11 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3323,11 +3326,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3448,11 +3451,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3567,11 +3570,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3673,11 +3676,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,11 +3729,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3842,11 +3845,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3975,12 +3978,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4096,12 +4099,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4209,7 +4212,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -4274,12 +4277,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4391,11 +4394,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4524,12 +4527,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4645,12 +4648,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4758,7 +4761,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -4823,12 +4826,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4934,11 +4937,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5062,12 +5065,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5175,12 +5178,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5278,7 +5281,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -5333,12 +5336,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5371,14 +5374,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5391,6 +5386,14 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5461,11 +5464,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5663,11 +5666,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5814,11 +5817,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5951,11 +5954,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6004,11 +6007,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6120,11 +6123,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6281,12 +6284,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="88" t="str">
+      <c r="B39" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6410,12 +6413,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="str">
+      <c r="B44" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6527,7 +6530,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="94"/>
@@ -6592,12 +6595,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88" t="str">
+      <c r="B54" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6709,11 +6712,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6864,12 +6867,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88" t="str">
+      <c r="B68" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6988,12 +6991,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="88" t="str">
+      <c r="B73" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7101,7 +7104,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="94"/>
@@ -7166,12 +7169,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="88" t="str">
+      <c r="B83" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7277,11 +7280,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7426,12 +7429,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="88" t="str">
+      <c r="B97" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="89"/>
-      <c r="D97" s="90"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7542,12 +7545,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="88" t="str">
+      <c r="B102" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="90"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7645,7 +7648,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="94"/>
@@ -7700,12 +7703,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="88" t="str">
+      <c r="B112" s="91" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="89"/>
-      <c r="D112" s="90"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7738,14 +7741,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7758,6 +7753,14 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7768,7 +7771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -7829,11 +7832,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8031,11 +8034,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8182,11 +8185,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8319,11 +8322,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8372,11 +8375,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8488,11 +8491,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8652,12 +8655,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -8781,12 +8784,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8898,7 +8901,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -8963,12 +8966,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -9104,11 +9107,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9253,12 +9256,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -9369,12 +9372,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -9472,7 +9475,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -9527,12 +9530,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9709,21 +9712,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9734,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9795,11 +9798,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -9997,11 +10000,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -10148,11 +10151,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="B16" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -10285,11 +10288,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10338,11 +10341,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -10454,11 +10457,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -10618,12 +10621,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -10747,12 +10750,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
-        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -10855,7 +10858,7 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -10863,8 +10866,8 @@
       <c r="K49" s="31"/>
       <c r="L49" s="45"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -10873,7 +10876,7 @@
       <c r="K50" s="31"/>
       <c r="L50" s="45"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="50" t="s">
         <v>6</v>
       </c>
@@ -10889,7 +10892,7 @@
       <c r="K51" s="31"/>
       <c r="L51" s="45"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="63" t="s">
         <v>8</v>
       </c>
@@ -10905,7 +10908,7 @@
       <c r="K52" s="31"/>
       <c r="L52" s="45"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="54" t="s">
         <v>10</v>
       </c>
@@ -10920,7 +10923,7 @@
       <c r="K53" s="31"/>
       <c r="L53" s="45"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -10928,13 +10931,13 @@
       <c r="K54" s="31"/>
       <c r="L54" s="45"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -10944,7 +10947,7 @@
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>21</v>
       </c>
@@ -10964,9 +10967,7 @@
         <f>J48</f>
         <v>24.346109799999994</v>
       </c>
-      <c r="I56" s="87" t="s">
-        <v>64</v>
-      </c>
+      <c r="I56" s="87"/>
       <c r="J56" s="5"/>
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
@@ -11024,7 +11025,7 @@
       <c r="J62" s="45"/>
       <c r="K62" s="45"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="78" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -11039,7 +11040,7 @@
       <c r="J63" s="76"/>
       <c r="K63" s="45"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="78" t="str">
         <f>B32</f>
         <v>Consumo Energía OCTUBRE 2015</v>
@@ -11057,7 +11058,7 @@
       </c>
       <c r="K64" s="45"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -11069,12 +11070,12 @@
       <c r="J65" s="2"/>
       <c r="K65" s="45"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -11091,7 +11092,7 @@
       </c>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>6</v>
       </c>
@@ -11119,7 +11120,7 @@
       </c>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="60" t="s">
         <v>8</v>
       </c>
@@ -11147,7 +11148,7 @@
       </c>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="17" t="s">
         <v>10</v>
       </c>
@@ -11177,7 +11178,7 @@
       </c>
       <c r="K69" s="45"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -11197,7 +11198,7 @@
       </c>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -11218,13 +11219,13 @@
       </c>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -11244,7 +11245,7 @@
       </c>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="50" t="s">
         <v>6</v>
       </c>
@@ -11275,7 +11276,7 @@
       </c>
       <c r="K73" s="45"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="63" t="s">
         <v>8</v>
       </c>
@@ -11294,7 +11295,7 @@
       <c r="I74" s="13"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="54" t="s">
         <v>10</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>160.00013639999997</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -11334,13 +11335,13 @@
       <c r="I76" s="13"/>
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
-        <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
-      </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -11356,7 +11357,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="50" t="s">
         <v>6</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="63" t="s">
         <v>8</v>
       </c>
@@ -11402,7 +11403,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="54" t="s">
         <v>10</v>
       </c>
@@ -11431,21 +11432,21 @@
         <v>160.01763639999999</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="11"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
       <c r="D82" s="95"/>
       <c r="E82" s="11"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="50" t="s">
         <v>6</v>
       </c>
@@ -11459,7 +11460,7 @@
       </c>
       <c r="E83" s="11"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="63" t="s">
         <v>8</v>
       </c>
@@ -11473,7 +11474,7 @@
       </c>
       <c r="E84" s="11"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="54" t="s">
         <v>10</v>
       </c>
@@ -11486,19 +11487,19 @@
       </c>
       <c r="E85" s="11"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="11"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -11506,7 +11507,7 @@
       <c r="G87" s="67"/>
       <c r="H87" s="68"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="38" t="s">
         <v>21</v>
       </c>
@@ -11530,155 +11531,59 @@
       <c r="J88" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="86" t="s">
-        <v>52</v>
-      </c>
+      <c r="B93" s="86"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="74">
-        <v>42234</v>
-      </c>
-      <c r="D95">
-        <v>275.39999999999998</v>
-      </c>
-      <c r="E95" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
+      <c r="B95" s="74"/>
+      <c r="E95" s="75"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="74">
-        <v>42251</v>
-      </c>
-      <c r="D96">
-        <v>316.5</v>
-      </c>
-      <c r="E96" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F96" t="s">
-        <v>55</v>
-      </c>
+      <c r="B96" s="74"/>
+      <c r="E96" s="75"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="74">
-        <v>42259</v>
-      </c>
-      <c r="D97">
-        <v>338.5</v>
-      </c>
-      <c r="E97" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
+      <c r="B97" s="74"/>
+      <c r="E97" s="75"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="74">
-        <v>42264</v>
-      </c>
-      <c r="D98">
-        <v>343.8</v>
-      </c>
-      <c r="E98" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F98" t="s">
-        <v>54</v>
-      </c>
+      <c r="B98" s="74"/>
+      <c r="E98" s="75"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C101" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="82">
-        <f>D96-D95</f>
-        <v>41.100000000000023</v>
-      </c>
-      <c r="E101" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" s="82" t="s">
-        <v>57</v>
-      </c>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="82"/>
       <c r="G101" s="84"/>
-      <c r="H101" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="J101" t="s">
-        <v>65</v>
-      </c>
-      <c r="K101" s="85">
-        <v>17</v>
-      </c>
+      <c r="H101" s="82"/>
+      <c r="K101" s="85"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="82"/>
-      <c r="D102" s="82">
-        <f>D97-D96</f>
-        <v>22</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F102" s="82" t="s">
-        <v>58</v>
-      </c>
+      <c r="D102" s="82"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="82"/>
       <c r="G102" s="84"/>
-      <c r="H102" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" t="s">
-        <v>65</v>
-      </c>
-      <c r="K102" s="85">
-        <v>16</v>
-      </c>
+      <c r="H102" s="82"/>
+      <c r="K102" s="85"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D103" s="82">
-        <f>D98-D97</f>
-        <v>5.3000000000000114</v>
-      </c>
-      <c r="E103" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="82" t="s">
-        <v>59</v>
-      </c>
+      <c r="D103" s="82"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="82"/>
       <c r="G103" s="84"/>
-      <c r="H103" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="J103" t="s">
-        <v>65</v>
-      </c>
-      <c r="K103" s="85">
-        <v>7</v>
-      </c>
+      <c r="H103" s="82"/>
+      <c r="K103" s="85"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K104" s="85"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="K105" s="85">
-        <v>40</v>
-      </c>
+      <c r="J105" s="82"/>
+      <c r="K105" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -11688,6 +11593,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
@@ -17,11 +12,12 @@
     <sheet name="AGO 2015" sheetId="3" r:id="rId3"/>
     <sheet name="SET 2015" sheetId="4" r:id="rId4"/>
     <sheet name="OCT 2015" sheetId="5" r:id="rId5"/>
+    <sheet name="NOV 2015" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="73">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -244,6 +240,12 @@
   </si>
   <si>
     <t>MEDIDOR 2 - M2 (Srta. Maria Jesus)</t>
+  </si>
+  <si>
+    <t>Consumo Energía NOVIEMBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-DIC-2015</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1128,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
@@ -3265,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -5403,7 +5405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -7771,8 +7773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9737,8 +9739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11602,4 +11604,1876 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M105"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="M3" s="79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="53">
+        <v>31246.7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(H6/4)</f>
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="53">
+        <v>30826.5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1.34</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="L7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55">
+        <f>(C6-C7)</f>
+        <v>420.20000000000073</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H8" s="20">
+        <f>(C8*G8)</f>
+        <v>188.16556000000031</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21">
+        <f>(C14*G8)</f>
+        <v>18.180680000000009</v>
+      </c>
+      <c r="K8" s="21">
+        <f>(C19*G8)</f>
+        <v>11.508459999999994</v>
+      </c>
+      <c r="L8" s="21">
+        <f>(C24*G8)</f>
+        <v>23.464720000000014</v>
+      </c>
+      <c r="M8" s="21">
+        <f>(C27*G8)</f>
+        <v>135.0117000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>7.88</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="L9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="M9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f>((SUM(H6:H9)+H10)*0.18)</f>
+        <v>35.984800800000052</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f>((SUM(J6:J9)+J10)*0.18)</f>
+        <v>3.8012724000000016</v>
+      </c>
+      <c r="K11" s="13">
+        <f>((SUM(K6:K9)+K10)*0.18)</f>
+        <v>2.6002727999999991</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>4.7523996000000022</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>24.830856000000047</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53">
+        <v>354.5</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3.24</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
+        <f>(H12/4)</f>
+        <v>0.81</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(H12/4)</f>
+        <v>0.81</v>
+      </c>
+      <c r="L12" s="14">
+        <f>(H12/4)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M12" s="14">
+        <f>(H12/4)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="53">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>D7</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55">
+        <f>(C12-C13)</f>
+        <v>40.600000000000023</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <f>SUM(H6:H10)+SUM(H11:H12)</f>
+        <v>239.14036080000037</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>25.72945240000001</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>17.856232799999994</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
+        <v>31.964619600000017</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="1"/>
+        <v>163.59005600000032</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f>H16/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="13">
+        <f>H16/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <f>H16/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="53">
+        <v>407.2</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="30">
+        <f>(H17/4)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K17" s="30">
+        <f>(H17/4)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L17" s="30">
+        <f>(H17/4)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M17" s="30">
+        <f>(H17/4)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="53">
+        <v>381.5</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>D7</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="55">
+        <f>(C17-C18)</f>
+        <v>25.699999999999989</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35">
+        <f>(H14+H16-H17)</f>
+        <v>239.10036080000037</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="2"/>
+        <v>25.719452400000009</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="2"/>
+        <v>17.846232799999992</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="2"/>
+        <v>31.954619600000015</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="2"/>
+        <v>163.58005600000033</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="53">
+        <v>336.3</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="53">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>D7</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="55">
+        <f>C22-C23</f>
+        <v>52.400000000000034</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="39">
+        <f>(C8-SUM(C14,C19,C24))</f>
+        <v>301.50000000000068</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42">
+        <f>M19</f>
+        <v>163.58005600000033</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="33"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="33"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+    </row>
+    <row r="30" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="78" t="str">
+        <f>B3</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="81" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <f>C6</f>
+        <v>31246.7</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f t="shared" ref="H35:I41" si="3">H6</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <f>K6</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="61">
+        <f>C7</f>
+        <v>30826.5</v>
+      </c>
+      <c r="D36" s="62" t="str">
+        <f>D7</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
+        <f t="shared" si="3"/>
+        <v>1.34</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <f>K7</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C8</f>
+        <v>420.20000000000073</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <f>G8</f>
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>188.16556000000031</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f t="shared" ref="J37:J48" si="4">K8</f>
+        <v>11.508459999999994</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
+        <f t="shared" si="3"/>
+        <v>7.88</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
+        <v>1.97</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13">
+        <f t="shared" si="3"/>
+        <v>35.984800800000052</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6002727999999991</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="51">
+        <f>C12</f>
+        <v>354.5</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>D35</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="3"/>
+        <v>3.24</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
+        <v>0.81</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="64">
+        <f>C13</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D42" s="62" t="str">
+        <f>D36</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="55">
+        <f>C14</f>
+        <v>40.600000000000023</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13">
+        <f>H14</f>
+        <v>239.14036080000037</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>17.856232799999994</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="91" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>H16</f>
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="51">
+        <f>C17</f>
+        <v>407.2</v>
+      </c>
+      <c r="D46" s="27" t="str">
+        <f>D41</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f>H17</f>
+        <v>0.06</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="64">
+        <f>C18</f>
+        <v>381.5</v>
+      </c>
+      <c r="D47" s="62" t="str">
+        <f>D42</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="55">
+        <f>C19</f>
+        <v>25.699999999999989</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35">
+        <f>(H43+H45-H46)</f>
+        <v>239.10036080000037</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" si="4"/>
+        <v>17.846232799999992</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="11"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="51">
+        <f>C22</f>
+        <v>336.3</v>
+      </c>
+      <c r="D51" s="27" t="str">
+        <f>D35</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="64">
+        <f>C23</f>
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D52" s="62" t="str">
+        <f>D36</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="55">
+        <f>C24</f>
+        <v>52.400000000000034</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="91" t="str">
+        <f>B26</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="39">
+        <f>C27</f>
+        <v>301.50000000000068</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42">
+        <f>J48</f>
+        <v>17.846232799999992</v>
+      </c>
+      <c r="I56" s="87"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F58" s="33"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F60" s="33"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="78" t="str">
+        <f>B32</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="81" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9">
+        <f>C6</f>
+        <v>31246.7</v>
+      </c>
+      <c r="D67" s="10" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f>H6</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <f>M6</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="61">
+        <f>C7</f>
+        <v>30826.5</v>
+      </c>
+      <c r="D68" s="62" t="str">
+        <f>D7</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f>H7</f>
+        <v>1.34</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14">
+        <f>M7</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="18">
+        <f>C8</f>
+        <v>420.20000000000073</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="73">
+        <f>G8</f>
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <v>188.16556000000031</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21">
+        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <v>135.0117000000003</v>
+      </c>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13">
+        <f t="shared" si="8"/>
+        <v>7.88</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14">
+        <f t="shared" si="9"/>
+        <v>1.97</v>
+      </c>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="91" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13">
+        <f t="shared" si="8"/>
+        <v>35.984800800000052</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="9"/>
+        <v>24.830856000000047</v>
+      </c>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="51">
+        <f>C12</f>
+        <v>354.5</v>
+      </c>
+      <c r="D73" s="27" t="str">
+        <f>D67</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" si="8"/>
+        <v>3.24</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14">
+        <f t="shared" si="9"/>
+        <v>0.81</v>
+      </c>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="64">
+        <f>C13</f>
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D74" s="62" t="str">
+        <f>D68</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="55">
+        <f>C14</f>
+        <v>40.600000000000023</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13">
+        <f t="shared" si="8"/>
+        <v>239.14036080000037</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="9"/>
+        <v>163.59005600000032</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="91" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="51">
+        <f>C17</f>
+        <v>407.2</v>
+      </c>
+      <c r="D78" s="27" t="str">
+        <f>D73</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="64">
+        <f>C18</f>
+        <v>381.5</v>
+      </c>
+      <c r="D79" s="62" t="str">
+        <f>D74</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="55">
+        <f>C19</f>
+        <v>25.699999999999989</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="20">
+        <f t="shared" si="8"/>
+        <v>239.10036080000037</v>
+      </c>
+      <c r="I80" s="35">
+        <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="21">
+        <f t="shared" si="9"/>
+        <v>163.58005600000033</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="94"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="51">
+        <f>C22</f>
+        <v>336.3</v>
+      </c>
+      <c r="D83" s="27" t="str">
+        <f>D67</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="64">
+        <f>C23</f>
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D84" s="62" t="str">
+        <f>D68</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="55">
+        <f>C24</f>
+        <v>52.400000000000034</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="91" t="str">
+        <f>B55</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="67"/>
+      <c r="H87" s="68"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="39">
+        <f>C27</f>
+        <v>301.50000000000068</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="43">
+        <f>J80</f>
+        <v>163.58005600000033</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="86"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="74"/>
+      <c r="E95" s="75"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="74"/>
+      <c r="E96" s="75"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="74"/>
+      <c r="E97" s="75"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="74"/>
+      <c r="E98" s="75"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="82"/>
+      <c r="K101" s="85"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="82"/>
+      <c r="K102" s="85"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D103" s="82"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="82"/>
+      <c r="K103" s="85"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="85"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="82"/>
+      <c r="K105" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
@@ -13,11 +18,12 @@
     <sheet name="SET 2015" sheetId="4" r:id="rId4"/>
     <sheet name="OCT 2015" sheetId="5" r:id="rId5"/>
     <sheet name="NOV 2015" sheetId="6" r:id="rId6"/>
+    <sheet name="DIC 2015" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'AGO 2015'!$B$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="75">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -246,6 +252,12 @@
   </si>
   <si>
     <t>FECHA DE VENCIMIENTO: 03-DIC-2015</t>
+  </si>
+  <si>
+    <t>(16/12/15)</t>
+  </si>
+  <si>
+    <t>(17/11/15)</t>
   </si>
 </sst>
 </file>
@@ -832,6 +844,15 @@
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,15 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,11 +1211,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1324,7 +1336,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="94"/>
@@ -1443,7 +1455,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="94"/>
@@ -1549,7 +1561,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="94"/>
@@ -1602,11 +1614,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1717,11 +1729,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1850,12 +1862,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="91" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1971,12 +1983,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="91" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2083,7 +2095,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -2146,12 +2158,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="91" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2262,11 +2274,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2395,12 +2407,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="91" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2516,12 +2528,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="91" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2629,7 +2641,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -2692,12 +2704,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="91" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2802,11 +2814,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2930,12 +2942,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="91" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3043,12 +3055,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="91" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3146,7 +3158,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -3199,12 +3211,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="91" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3237,6 +3249,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3252,11 +3269,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3328,11 +3340,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3453,11 +3465,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3572,11 +3584,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3678,11 +3690,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,11 +3743,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3847,11 +3859,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3980,12 +3992,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="91" t="str">
+      <c r="B37" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4101,12 +4113,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="91" t="str">
+      <c r="B42" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="93"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4214,7 +4226,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -4279,12 +4291,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="91" t="str">
+      <c r="B52" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4396,11 +4408,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4529,12 +4541,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="91" t="str">
+      <c r="B65" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4650,12 +4662,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="91" t="str">
+      <c r="B70" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4763,7 +4775,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -4828,12 +4840,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="91" t="str">
+      <c r="B80" s="88" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4939,11 +4951,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88" t="s">
+      <c r="B88" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5067,12 +5079,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="91" t="str">
+      <c r="B93" s="88" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5180,12 +5192,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="91" t="str">
+      <c r="B98" s="88" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5283,7 +5295,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -5338,12 +5350,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="91" t="str">
+      <c r="B108" s="88" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5376,6 +5388,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5388,14 +5408,6 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5466,11 +5478,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5668,11 +5680,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5819,11 +5831,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5956,11 +5968,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6009,11 +6021,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6125,11 +6137,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6286,12 +6298,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="str">
+      <c r="B39" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6415,12 +6427,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="91" t="str">
+      <c r="B44" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6532,7 +6544,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="94"/>
@@ -6597,12 +6609,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="91" t="str">
+      <c r="B54" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6714,11 +6726,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6869,12 +6881,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="91" t="str">
+      <c r="B68" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -6993,12 +7005,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="91" t="str">
+      <c r="B73" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="93"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7106,7 +7118,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="94"/>
@@ -7171,12 +7183,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="91" t="str">
+      <c r="B83" s="88" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="93"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7282,11 +7294,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="88" t="s">
+      <c r="B91" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="90"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="93"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7431,12 +7443,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="91" t="str">
+      <c r="B97" s="88" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7547,12 +7559,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="91" t="str">
+      <c r="B102" s="88" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="92"/>
-      <c r="D102" s="93"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="90"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7650,7 +7662,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="94"/>
@@ -7705,12 +7717,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="91" t="str">
+      <c r="B112" s="88" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="93"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="90"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7743,6 +7755,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7755,14 +7775,6 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7834,11 +7846,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8036,11 +8048,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8187,11 +8199,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8324,11 +8336,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,11 +8389,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8493,11 +8505,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8657,12 +8669,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -8786,12 +8798,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8903,7 +8915,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -8968,12 +8980,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -9109,11 +9121,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9258,12 +9270,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -9374,12 +9386,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="91" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -9477,7 +9489,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -9532,12 +9544,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="91" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9714,21 +9726,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9800,11 +9812,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -10002,11 +10014,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -10153,11 +10165,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -10290,11 +10302,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10343,11 +10355,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -10459,11 +10471,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -10623,12 +10635,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -10752,12 +10764,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -10869,7 +10881,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -10934,12 +10946,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -11073,11 +11085,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -11222,12 +11234,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -11338,12 +11350,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="91" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -11441,7 +11453,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -11496,12 +11508,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="91" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -11586,6 +11598,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -11595,12 +11613,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11610,8 +11622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11671,11 +11683,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -11708,7 +11720,7 @@
         <v>31246.7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="5" t="s">
@@ -11873,11 +11885,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -11917,7 +11929,7 @@
       </c>
       <c r="D12" s="10" t="str">
         <f>D6</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -12024,11 +12036,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -12064,7 +12076,7 @@
       </c>
       <c r="D17" s="10" t="str">
         <f>D6</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -12161,11 +12173,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -12177,7 +12189,7 @@
       </c>
       <c r="D22" s="10" t="str">
         <f>D6</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -12214,11 +12226,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -12330,11 +12342,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -12363,7 +12375,7 @@
       </c>
       <c r="D35" s="10" t="str">
         <f>D6</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5" t="s">
@@ -12494,12 +12506,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="str">
+      <c r="B40" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -12531,7 +12543,7 @@
       </c>
       <c r="D41" s="27" t="str">
         <f>D35</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
@@ -12623,12 +12635,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="str">
+      <c r="B45" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="93"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -12657,7 +12669,7 @@
       </c>
       <c r="D46" s="27" t="str">
         <f>D41</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
@@ -12740,7 +12752,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -12759,7 +12771,7 @@
       </c>
       <c r="D51" s="27" t="str">
         <f>D35</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E51" s="11"/>
       <c r="K51" s="31"/>
@@ -12805,12 +12817,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="str">
+      <c r="B55" s="88" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -12944,11 +12956,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -12975,7 +12987,7 @@
       </c>
       <c r="D67" s="10" t="str">
         <f>D6</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="5" t="s">
@@ -13093,12 +13105,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="str">
+      <c r="B72" s="88" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -13128,7 +13140,7 @@
       </c>
       <c r="D73" s="27" t="str">
         <f>D67</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
@@ -13209,12 +13221,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="91" t="str">
+      <c r="B77" s="88" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -13240,7 +13252,7 @@
       </c>
       <c r="D78" s="27" t="str">
         <f>D73</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
@@ -13312,7 +13324,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
+      <c r="B82" s="88" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -13329,7 +13341,7 @@
       </c>
       <c r="D83" s="27" t="str">
         <f>D67</f>
-        <v>(19/10/15)</v>
+        <v>(17/11/15)</v>
       </c>
       <c r="E83" s="11"/>
     </row>
@@ -13367,12 +13379,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="91" t="str">
+      <c r="B87" s="88" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -13457,12 +13469,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -13472,8 +13478,1885 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="M3" s="79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="53">
+        <v>31689.1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <v>2.48</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f>(H6/4)</f>
+        <v>0.62</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(H6/4)</f>
+        <v>0.62</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(H6/4)</f>
+        <v>0.62</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(H6/4)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="53">
+        <v>31246.7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="55">
+        <f>(C6-C7)</f>
+        <v>442.39999999999782</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="73">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <f>(C8*G8)</f>
+        <v>199.52239999999901</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21">
+        <f>(C14*G8)</f>
+        <v>22.414699999999996</v>
+      </c>
+      <c r="K8" s="21">
+        <f>(C19*G8)</f>
+        <v>13.484900000000016</v>
+      </c>
+      <c r="L8" s="21">
+        <f>(C24*G8)</f>
+        <v>26.248199999999997</v>
+      </c>
+      <c r="M8" s="21">
+        <f>(C27*G8)</f>
+        <v>137.37459999999902</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <v>7.88</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="L9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+      <c r="M9" s="14">
+        <f>(H9/4)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M10" s="14">
+        <f>H10/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f>((SUM(H6:H9)+H10)*0.18)</f>
+        <v>38.032631999999822</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f>((SUM(J6:J9)+J10)*0.18)</f>
+        <v>4.5642959999999988</v>
+      </c>
+      <c r="K11" s="13">
+        <f>((SUM(K6:K9)+K10)*0.18)</f>
+        <v>2.9569320000000028</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2543259999999989</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="0"/>
+        <v>25.257077999999822</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53">
+        <v>404.2</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>D6</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3.41</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
+        <f>(H12/4)</f>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(H12/4)</f>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="L12" s="14">
+        <f>(H12/4)</f>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="M12" s="14">
+        <f>(H12/4)</f>
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="53">
+        <v>354.5</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>D7</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55">
+        <f>(C12-C13)</f>
+        <v>49.699999999999989</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <f>SUM(H6:H10)+SUM(H11:H12)</f>
+        <v>252.73503199999885</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>30.773995999999993</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>20.236832000000021</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
+        <v>35.297525999999998</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="1"/>
+        <v>166.42667799999884</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f>H16/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K16" s="13">
+        <f>H16/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L16" s="13">
+        <f>H16/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M16" s="13">
+        <f>H16/4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="53">
+        <v>437.1</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>D6</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="30">
+        <f>(H17/4)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="K17" s="30">
+        <f>(H17/4)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="L17" s="30">
+        <f>(H17/4)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="M17" s="30">
+        <f>(H17/4)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="53">
+        <v>407.2</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>D7</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="55">
+        <f>(C17-C18)</f>
+        <v>29.900000000000034</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35">
+        <f>(H14+H16-H17)</f>
+        <v>252.69503199999886</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="2"/>
+        <v>30.763995999999992</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="2"/>
+        <v>20.226832000000019</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="2"/>
+        <v>35.287526</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="2"/>
+        <v>166.41667799999883</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="53">
+        <v>394.5</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>D6</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="53">
+        <v>336.3</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>D7</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="55">
+        <f>C22-C23</f>
+        <v>58.199999999999989</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="39">
+        <f>(C8-SUM(C14,C19,C24))</f>
+        <v>304.59999999999781</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42">
+        <f>M19</f>
+        <v>166.41667799999883</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="33"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="33"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+    </row>
+    <row r="30" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="78" t="str">
+        <f>B3</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="81" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="71"/>
+      <c r="J34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <f>C6</f>
+        <v>31689.1</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>D6</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13">
+        <f t="shared" ref="H35:I41" si="3">H6</f>
+        <v>2.48</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <f>K6</f>
+        <v>0.62</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="61">
+        <f>C7</f>
+        <v>31246.7</v>
+      </c>
+      <c r="D36" s="62" t="str">
+        <f>D7</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13">
+        <f t="shared" si="3"/>
+        <v>1.35</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C8</f>
+        <v>442.39999999999782</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <f>G8</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>199.52239999999901</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f t="shared" ref="J37:J48" si="4">K8</f>
+        <v>13.484900000000016</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
+        <f t="shared" si="3"/>
+        <v>7.88</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
+        <v>1.97</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="88" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C40" s="89"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13">
+        <f t="shared" si="3"/>
+        <v>38.032631999999822</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>2.9569320000000028</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="51">
+        <f>C12</f>
+        <v>404.2</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>D35</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="3"/>
+        <v>3.41</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="64">
+        <f>C13</f>
+        <v>354.5</v>
+      </c>
+      <c r="D42" s="62" t="str">
+        <f>D36</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="55">
+        <f>C14</f>
+        <v>49.699999999999989</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13">
+        <f>H14</f>
+        <v>252.73503199999885</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>20.236832000000021</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="88" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13">
+        <f>H16</f>
+        <v>0.05</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="51">
+        <f>C17</f>
+        <v>437.1</v>
+      </c>
+      <c r="D46" s="27" t="str">
+        <f>D41</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13">
+        <f>H17</f>
+        <v>0.09</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="64">
+        <f>C18</f>
+        <v>407.2</v>
+      </c>
+      <c r="D47" s="62" t="str">
+        <f>D42</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="55">
+        <f>C19</f>
+        <v>29.900000000000034</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="35">
+        <f>(H43+H45-H46)</f>
+        <v>252.69503199999886</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" si="4"/>
+        <v>20.226832000000019</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="11"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="11"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="51">
+        <f>C22</f>
+        <v>394.5</v>
+      </c>
+      <c r="D51" s="27" t="str">
+        <f>D35</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="64">
+        <f>C23</f>
+        <v>336.3</v>
+      </c>
+      <c r="D52" s="62" t="str">
+        <f>D36</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="55">
+        <f>C24</f>
+        <v>58.199999999999989</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="88" t="str">
+        <f>B26</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="39">
+        <f>C27</f>
+        <v>304.59999999999781</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42">
+        <f>J48</f>
+        <v>20.226832000000019</v>
+      </c>
+      <c r="I56" s="87"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F58" s="33"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F60" s="33"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="78" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="78" t="str">
+        <f>B32</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="81" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9">
+        <f>C6</f>
+        <v>31689.1</v>
+      </c>
+      <c r="D67" s="10" t="str">
+        <f>D6</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13">
+        <f>H6</f>
+        <v>2.48</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <f>M6</f>
+        <v>0.62</v>
+      </c>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="61">
+        <f>C7</f>
+        <v>31246.7</v>
+      </c>
+      <c r="D68" s="62" t="str">
+        <f>D7</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="18">
+        <f>C8</f>
+        <v>442.39999999999782</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="73">
+        <f>G8</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <v>199.52239999999901</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21">
+        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <v>137.37459999999902</v>
+      </c>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13">
+        <f t="shared" si="8"/>
+        <v>7.88</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14">
+        <f t="shared" si="9"/>
+        <v>1.97</v>
+      </c>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="88" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13">
+        <f t="shared" si="8"/>
+        <v>38.032631999999822</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="9"/>
+        <v>25.257077999999822</v>
+      </c>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="51">
+        <f>C12</f>
+        <v>404.2</v>
+      </c>
+      <c r="D73" s="27" t="str">
+        <f>D67</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="12">
+        <f>G12</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" si="8"/>
+        <v>3.41</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14">
+        <f t="shared" si="9"/>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="64">
+        <f>C13</f>
+        <v>354.5</v>
+      </c>
+      <c r="D74" s="62" t="str">
+        <f>D68</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="55">
+        <f>C14</f>
+        <v>49.699999999999989</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13">
+        <f t="shared" si="8"/>
+        <v>252.73503199999885</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="9"/>
+        <v>166.42667799999884</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="88" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C77" s="89"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14">
+        <f t="shared" si="9"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="51">
+        <f>C17</f>
+        <v>437.1</v>
+      </c>
+      <c r="D78" s="27" t="str">
+        <f>D73</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14">
+        <f t="shared" si="9"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="64">
+        <f>C18</f>
+        <v>407.2</v>
+      </c>
+      <c r="D79" s="62" t="str">
+        <f>D74</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="55">
+        <f>C19</f>
+        <v>29.900000000000034</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="20">
+        <f t="shared" si="8"/>
+        <v>252.69503199999886</v>
+      </c>
+      <c r="I80" s="35">
+        <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="21">
+        <f t="shared" si="9"/>
+        <v>166.41667799999883</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="94"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="51">
+        <f>C22</f>
+        <v>394.5</v>
+      </c>
+      <c r="D83" s="27" t="str">
+        <f>D67</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="64">
+        <f>C23</f>
+        <v>336.3</v>
+      </c>
+      <c r="D84" s="62" t="str">
+        <f>D68</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="55">
+        <f>C24</f>
+        <v>58.199999999999989</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="88" t="str">
+        <f>B55</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C87" s="89"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="67"/>
+      <c r="H87" s="68"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="39">
+        <f>C27</f>
+        <v>304.59999999999781</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="43">
+        <f>J80</f>
+        <v>166.41667799999883</v>
+      </c>
+      <c r="I88" s="35"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="86"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="74"/>
+      <c r="E95" s="75"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="74"/>
+      <c r="E96" s="75"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="74"/>
+      <c r="E97" s="75"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="74"/>
+      <c r="E98" s="75"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="82"/>
+      <c r="K101" s="85"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="82"/>
+      <c r="K102" s="85"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D103" s="82"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="82"/>
+      <c r="K103" s="85"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="85"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="82"/>
+      <c r="K105" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JUN 2015" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="76">
   <si>
     <t>Suministro 109048</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>(17/11/15)</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 07-ENE-2016</t>
   </si>
 </sst>
 </file>
@@ -844,6 +847,15 @@
     <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,15 +863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,11 +1214,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -1336,7 +1339,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="94"/>
@@ -1455,7 +1458,7 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="94"/>
@@ -1561,7 +1564,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="94"/>
@@ -1614,11 +1617,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -1729,11 +1732,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -1862,12 +1865,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -1983,12 +1986,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -2095,7 +2098,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -2158,12 +2161,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -2274,11 +2277,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -2407,12 +2410,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2528,12 +2531,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -2641,7 +2644,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -2704,12 +2707,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -2814,11 +2817,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -2942,12 +2945,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -3055,12 +3058,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -3158,7 +3161,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -3211,12 +3214,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -3249,11 +3252,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -3269,6 +3267,11 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3340,11 +3343,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -3465,11 +3468,11 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -3584,11 +3587,11 @@
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -3690,11 +3693,11 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3743,11 +3746,11 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="11"/>
       <c r="F24" s="66" t="s">
         <v>20</v>
@@ -3859,11 +3862,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="5"/>
       <c r="F32" s="65" t="s">
         <v>2</v>
@@ -3992,12 +3995,12 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="str">
+      <c r="B37" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
         <v>14</v>
@@ -4113,12 +4116,12 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="str">
+      <c r="B42" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5" t="s">
         <v>17</v>
@@ -4226,7 +4229,7 @@
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="94"/>
@@ -4291,12 +4294,12 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88" t="str">
+      <c r="B52" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="11"/>
       <c r="F52" s="66" t="s">
         <v>20</v>
@@ -4408,11 +4411,11 @@
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5"/>
       <c r="F60" s="65" t="s">
         <v>2</v>
@@ -4541,12 +4544,12 @@
       <c r="L64" s="28"/>
     </row>
     <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88" t="str">
+      <c r="B65" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -4662,12 +4665,12 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88" t="str">
+      <c r="B70" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="93"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5" t="s">
         <v>17</v>
@@ -4775,7 +4778,7 @@
       <c r="L74" s="28"/>
     </row>
     <row r="75" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="94"/>
@@ -4840,12 +4843,12 @@
       <c r="L79" s="28"/>
     </row>
     <row r="80" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="str">
+      <c r="B80" s="91" t="str">
         <f>B24</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
       <c r="E80" s="11"/>
       <c r="F80" s="66" t="s">
         <v>20</v>
@@ -4951,11 +4954,11 @@
       <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="5"/>
       <c r="F88" s="65" t="s">
         <v>2</v>
@@ -5079,12 +5082,12 @@
       <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="88" t="str">
+      <c r="B93" s="91" t="str">
         <f>B9</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
         <v>14</v>
@@ -5192,12 +5195,12 @@
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88" t="str">
+      <c r="B98" s="91" t="str">
         <f>B14</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="90"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5" t="s">
         <v>17</v>
@@ -5295,7 +5298,7 @@
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="94"/>
@@ -5350,12 +5353,12 @@
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="88" t="str">
+      <c r="B108" s="91" t="str">
         <f>B52</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="11"/>
       <c r="F108" s="66" t="s">
         <v>38</v>
@@ -5388,14 +5391,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B98:D98"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
@@ -5408,6 +5403,14 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5478,11 +5481,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="5"/>
       <c r="F4" s="65" t="s">
         <v>2</v>
@@ -5680,11 +5683,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -5831,11 +5834,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -5968,11 +5971,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6021,11 +6024,11 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="11"/>
       <c r="F25" s="66" t="s">
         <v>20</v>
@@ -6137,11 +6140,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="5"/>
       <c r="F33" s="65" t="s">
         <v>2</v>
@@ -6298,12 +6301,12 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="88" t="str">
+      <c r="B39" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
         <v>14</v>
@@ -6427,12 +6430,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="str">
+      <c r="B44" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
         <v>17</v>
@@ -6544,7 +6547,7 @@
       <c r="L48" s="45"/>
     </row>
     <row r="49" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="94"/>
@@ -6609,12 +6612,12 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88" t="str">
+      <c r="B54" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="11"/>
       <c r="F54" s="66" t="s">
         <v>20</v>
@@ -6726,11 +6729,11 @@
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="5"/>
       <c r="F62" s="65" t="s">
         <v>2</v>
@@ -6881,12 +6884,12 @@
       <c r="L67" s="28"/>
     </row>
     <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88" t="str">
+      <c r="B68" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="93"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -7005,12 +7008,12 @@
       <c r="L72" s="36"/>
     </row>
     <row r="73" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="88" t="str">
+      <c r="B73" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5" t="s">
         <v>17</v>
@@ -7118,7 +7121,7 @@
       <c r="L77" s="28"/>
     </row>
     <row r="78" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C78" s="94"/>
@@ -7183,12 +7186,12 @@
       <c r="L82" s="28"/>
     </row>
     <row r="83" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="88" t="str">
+      <c r="B83" s="91" t="str">
         <f>B25</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="11"/>
       <c r="F83" s="66" t="s">
         <v>20</v>
@@ -7294,11 +7297,11 @@
       <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="5"/>
       <c r="F91" s="65" t="s">
         <v>2</v>
@@ -7443,12 +7446,12 @@
       <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="88" t="str">
+      <c r="B97" s="91" t="str">
         <f>B10</f>
         <v>MEDIDOR 1 - M1 (Sr. Pedro Luna)</v>
       </c>
-      <c r="C97" s="89"/>
-      <c r="D97" s="90"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -7559,12 +7562,12 @@
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="88" t="str">
+      <c r="B102" s="91" t="str">
         <f>B15</f>
         <v>MEDIDOR 2 - M2 (Sr. Roberto Valdivieso)</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="90"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="11"/>
       <c r="F102" s="5" t="s">
         <v>17</v>
@@ -7662,7 +7665,7 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C107" s="94"/>
@@ -7717,12 +7720,12 @@
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="88" t="str">
+      <c r="B112" s="91" t="str">
         <f>B54</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C112" s="89"/>
-      <c r="D112" s="90"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93"/>
       <c r="E112" s="11"/>
       <c r="F112" s="66" t="s">
         <v>38</v>
@@ -7755,14 +7758,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7775,6 +7770,14 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7846,11 +7849,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -8048,11 +8051,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -8199,11 +8202,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -8336,11 +8339,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8389,11 +8392,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -8505,11 +8508,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -8669,12 +8672,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -8798,12 +8801,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -8915,7 +8918,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -8980,12 +8983,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -9121,11 +9124,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -9270,12 +9273,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -9386,12 +9389,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -9489,7 +9492,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -9544,12 +9547,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -9726,21 +9729,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9812,11 +9815,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -10014,11 +10017,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -10165,11 +10168,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -10302,11 +10305,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10355,11 +10358,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -10471,11 +10474,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -10635,12 +10638,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -10764,12 +10767,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -10881,7 +10884,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -10946,12 +10949,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -11085,11 +11088,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -11234,12 +11237,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -11350,12 +11353,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -11453,7 +11456,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -11508,12 +11511,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -11598,12 +11601,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -11613,6 +11610,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11683,11 +11686,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -11885,11 +11888,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -12036,11 +12039,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -12173,11 +12176,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -12226,11 +12229,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -12342,11 +12345,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -12506,12 +12509,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -12635,12 +12638,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -12752,7 +12755,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -12817,12 +12820,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -12956,11 +12959,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -13105,12 +13108,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -13221,12 +13224,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -13324,7 +13327,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -13379,12 +13382,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -13469,6 +13472,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -13478,12 +13487,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13495,7 +13498,7 @@
   <dimension ref="B2:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13539,7 +13542,7 @@
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
       <c r="M3" s="79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -13555,11 +13558,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
@@ -13757,11 +13760,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -13908,11 +13911,11 @@
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
@@ -14045,11 +14048,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -14098,11 +14101,11 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="11"/>
       <c r="F26" s="66" t="s">
         <v>20</v>
@@ -14195,7 +14198,7 @@
       <c r="I32" s="76"/>
       <c r="J32" s="81" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="45"/>
@@ -14214,11 +14217,11 @@
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="5"/>
       <c r="F34" s="65" t="s">
         <v>2</v>
@@ -14378,12 +14381,12 @@
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="str">
+      <c r="B40" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>14</v>
@@ -14507,12 +14510,12 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="str">
+      <c r="B45" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5" t="s">
         <v>17</v>
@@ -14624,7 +14627,7 @@
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="94"/>
@@ -14689,12 +14692,12 @@
       <c r="L54" s="45"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="88" t="str">
+      <c r="B55" s="91" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="11"/>
       <c r="F55" s="66" t="s">
         <v>20</v>
@@ -14811,7 +14814,7 @@
       <c r="I64" s="76"/>
       <c r="J64" s="81" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
       </c>
       <c r="K64" s="45"/>
     </row>
@@ -14828,11 +14831,11 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5"/>
       <c r="F66" s="65" t="s">
         <v>2</v>
@@ -14977,12 +14980,12 @@
       <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="88" t="str">
+      <c r="B72" s="91" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -15093,12 +15096,12 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="88" t="str">
+      <c r="B77" s="91" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="93"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5" t="s">
         <v>17</v>
@@ -15196,7 +15199,7 @@
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="94"/>
@@ -15251,12 +15254,12 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="str">
+      <c r="B87" s="91" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="89"/>
-      <c r="D87" s="90"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="11"/>
       <c r="F87" s="66" t="s">
         <v>38</v>
@@ -15341,6 +15344,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -15350,12 +15359,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
